--- a/data/users_labeled.xlsx
+++ b/data/users_labeled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beld\Documents\GitHub\code-master-thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E025534A-8DD9-414A-8C03-0BDFAFF8AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0185A9DD-997C-4A49-814A-1F6EF6F339EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="users_labeled" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users_labeled!$A$1:$AU$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users_labeled!$A$1:$AV$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="3526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="3528">
   <si>
     <t>user_id</t>
   </si>
@@ -10624,10 +10624,16 @@
     <t>International and European Law</t>
   </si>
   <si>
+    <t>Collaboration group</t>
+  </si>
+  <si>
     <t>This is directly related to the chair of the professor so it's fine to keep the relation to him</t>
   </si>
   <si>
     <t>No faculty</t>
+  </si>
+  <si>
+    <t>employee_type</t>
   </si>
 </sst>
 </file>
@@ -11042,12 +11048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU177"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AV177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AP4" sqref="AP4"/>
+      <selection pane="bottomLeft" activeCell="AP148" sqref="AP148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11061,7 +11068,7 @@
     <col min="37" max="41" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11186,25 +11193,28 @@
         <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -11311,19 +11321,22 @@
         <v>3370</v>
       </c>
       <c r="AP2" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ2" t="s">
         <v>3380</v>
       </c>
       <c r="AR2" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS2" t="s">
         <v>3389</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>3486</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -11439,25 +11452,28 @@
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ3" t="s">
         <v>3381</v>
       </c>
       <c r="AR3" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS3" t="s">
         <v>3390</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>3412</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>3454</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>3487</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -11570,25 +11586,28 @@
         <v>0</v>
       </c>
       <c r="AP4" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ4" t="s">
         <v>3381</v>
       </c>
       <c r="AR4" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS4" t="s">
         <v>3400</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>3423</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>3461</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -11701,25 +11720,28 @@
         <v>0</v>
       </c>
       <c r="AP5" t="s">
-        <v>3383</v>
+        <v>2518</v>
       </c>
       <c r="AQ5" t="s">
         <v>3383</v>
       </c>
       <c r="AR5" t="s">
+        <v>3383</v>
+      </c>
+      <c r="AS5" t="s">
         <v>3391</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>3413</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>3455</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -11829,10 +11851,13 @@
         <v>0</v>
       </c>
       <c r="AP6" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -11933,16 +11958,19 @@
         <v>3371</v>
       </c>
       <c r="AP7" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ7" t="s">
         <v>3384</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AR7" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AV7" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -12046,22 +12074,25 @@
         <v>0</v>
       </c>
       <c r="AP8" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ8" t="s">
         <v>3385</v>
       </c>
       <c r="AR8" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS8" t="s">
         <v>3392</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>3414</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -12168,25 +12199,28 @@
         <v>0</v>
       </c>
       <c r="AP9" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ9" t="s">
         <v>3381</v>
       </c>
       <c r="AR9" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS9" t="s">
         <v>3390</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>3412</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>3456</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV9" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -12281,25 +12315,28 @@
         <v>3370</v>
       </c>
       <c r="AP10" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ10" t="s">
         <v>3385</v>
       </c>
       <c r="AR10" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS10" t="s">
         <v>3393</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>3415</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>3457</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -12406,25 +12443,28 @@
         <v>3370</v>
       </c>
       <c r="AP11" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ11" t="s">
         <v>3381</v>
       </c>
       <c r="AR11" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS11" t="s">
         <v>3390</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>3412</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>3454</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -12540,25 +12580,28 @@
         <v>3370</v>
       </c>
       <c r="AP12" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ12" t="s">
         <v>3381</v>
       </c>
       <c r="AR12" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS12" t="s">
         <v>3394</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>3416</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>3458</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -12671,10 +12714,13 @@
         <v>0</v>
       </c>
       <c r="AP13" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -12787,19 +12833,22 @@
         <v>0</v>
       </c>
       <c r="AP14" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ14" t="s">
         <v>3380</v>
       </c>
       <c r="AR14" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS14" t="s">
         <v>3506</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>3507</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -12900,25 +12949,28 @@
         <v>0</v>
       </c>
       <c r="AP15" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ15" t="s">
         <v>3381</v>
       </c>
       <c r="AR15" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS15" t="s">
         <v>3400</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>3423</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>3461</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AV15" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -13016,25 +13068,28 @@
         <v>0</v>
       </c>
       <c r="AP16" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ16" t="s">
         <v>3381</v>
       </c>
       <c r="AR16" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS16" t="s">
         <v>3400</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>3423</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>3508</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -13144,22 +13199,25 @@
         <v>3370</v>
       </c>
       <c r="AP17" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ17" t="s">
         <v>3385</v>
       </c>
       <c r="AR17" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS17" t="s">
         <v>3395</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>3417</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -13251,22 +13309,25 @@
         <v>3370</v>
       </c>
       <c r="AP18" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ18" t="s">
         <v>3385</v>
       </c>
       <c r="AR18" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS18" t="s">
         <v>3395</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>3418</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -13373,19 +13434,22 @@
         <v>3370</v>
       </c>
       <c r="AP19" t="s">
-        <v>3386</v>
+        <v>2518</v>
       </c>
       <c r="AQ19" t="s">
         <v>3386</v>
       </c>
       <c r="AR19" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AS19" t="s">
         <v>3396</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AV19" t="s">
         <v>3491</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -13489,25 +13553,28 @@
         <v>3370</v>
       </c>
       <c r="AP20" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ20" t="s">
         <v>3381</v>
       </c>
       <c r="AR20" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS20" t="s">
         <v>3397</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>3419</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>3459</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AV20" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -13620,22 +13687,25 @@
         <v>0</v>
       </c>
       <c r="AP21" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ21" t="s">
         <v>3385</v>
       </c>
       <c r="AR21" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS21" t="s">
         <v>3392</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>3421</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AV21" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -13742,25 +13812,28 @@
         <v>3370</v>
       </c>
       <c r="AP22" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ22" t="s">
         <v>3381</v>
       </c>
       <c r="AR22" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS22" t="s">
         <v>3390</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>3412</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>3460</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AV22" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -13867,22 +13940,25 @@
         <v>3370</v>
       </c>
       <c r="AP23" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ23" t="s">
         <v>3384</v>
       </c>
       <c r="AR23" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS23" t="s">
         <v>3399</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>3422</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AV23" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -13989,10 +14065,13 @@
         <v>3370</v>
       </c>
       <c r="AP24" t="s">
-        <v>3380</v>
+        <v>3524</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>3524</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -14102,10 +14181,13 @@
         <v>0</v>
       </c>
       <c r="AP25" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -14215,10 +14297,13 @@
         <v>0</v>
       </c>
       <c r="AP26" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ26" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -14328,25 +14413,28 @@
         <v>0</v>
       </c>
       <c r="AP27" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ27" t="s">
         <v>3381</v>
       </c>
       <c r="AR27" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS27" t="s">
         <v>3400</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>3423</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AU27" t="s">
         <v>3461</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AV27" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -14459,16 +14547,19 @@
         <v>0</v>
       </c>
       <c r="AP28" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ28" t="s">
         <v>3384</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AR28" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AV28" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -14566,25 +14657,28 @@
         <v>3370</v>
       </c>
       <c r="AP29" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ29" t="s">
         <v>3384</v>
       </c>
       <c r="AR29" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS29" t="s">
         <v>3401</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AT29" t="s">
         <v>3424</v>
       </c>
-      <c r="AT29" t="s">
+      <c r="AU29" t="s">
         <v>3462</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AV29" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -14691,22 +14785,25 @@
         <v>0</v>
       </c>
       <c r="AP30" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ30" t="s">
         <v>3385</v>
       </c>
       <c r="AR30" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS30" t="s">
         <v>3392</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AT30" t="s">
         <v>3425</v>
       </c>
-      <c r="AU30" t="s">
+      <c r="AV30" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -14822,25 +14919,28 @@
         <v>3370</v>
       </c>
       <c r="AP31" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ31" t="s">
         <v>3385</v>
       </c>
       <c r="AR31" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS31" t="s">
         <v>3402</v>
       </c>
-      <c r="AS31" t="s">
+      <c r="AT31" t="s">
         <v>3426</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AU31" t="s">
         <v>3463</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AV31" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -14953,10 +15053,13 @@
         <v>0</v>
       </c>
       <c r="AP32" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ32" t="s">
         <v>3380</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -15057,25 +15160,28 @@
         <v>0</v>
       </c>
       <c r="AP33" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ33" t="s">
         <v>3381</v>
       </c>
       <c r="AR33" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS33" t="s">
         <v>3394</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AT33" t="s">
         <v>3427</v>
       </c>
-      <c r="AT33" t="s">
+      <c r="AU33" t="s">
         <v>3464</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AV33" t="s">
         <v>3494</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -15191,19 +15297,22 @@
         <v>3370</v>
       </c>
       <c r="AP34" t="s">
-        <v>3386</v>
+        <v>2518</v>
       </c>
       <c r="AQ34" t="s">
         <v>3386</v>
       </c>
       <c r="AR34" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AS34" t="s">
         <v>3396</v>
       </c>
-      <c r="AU34" t="s">
+      <c r="AV34" t="s">
         <v>3495</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -15316,25 +15425,28 @@
         <v>3370</v>
       </c>
       <c r="AP35" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ35" t="s">
         <v>3381</v>
       </c>
       <c r="AR35" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS35" t="s">
         <v>3390</v>
       </c>
-      <c r="AS35" t="s">
+      <c r="AT35" t="s">
         <v>3428</v>
       </c>
-      <c r="AT35" t="s">
+      <c r="AU35" t="s">
         <v>3465</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AV35" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -15444,25 +15556,28 @@
         <v>0</v>
       </c>
       <c r="AP36" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ36" t="s">
         <v>3385</v>
       </c>
       <c r="AR36" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS36" t="s">
         <v>3402</v>
       </c>
-      <c r="AS36" t="s">
+      <c r="AT36" t="s">
         <v>3426</v>
       </c>
-      <c r="AT36" t="s">
+      <c r="AU36" t="s">
         <v>3466</v>
       </c>
-      <c r="AU36" t="s">
+      <c r="AV36" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -15566,25 +15681,28 @@
         <v>3370</v>
       </c>
       <c r="AP37" t="s">
-        <v>3383</v>
+        <v>2518</v>
       </c>
       <c r="AQ37" t="s">
         <v>3383</v>
       </c>
       <c r="AR37" t="s">
+        <v>3383</v>
+      </c>
+      <c r="AS37" t="s">
         <v>3398</v>
       </c>
-      <c r="AS37" t="s">
+      <c r="AT37" t="s">
         <v>3420</v>
       </c>
-      <c r="AT37" t="s">
+      <c r="AU37" t="s">
         <v>3467</v>
       </c>
-      <c r="AU37" t="s">
+      <c r="AV37" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -15700,25 +15818,28 @@
         <v>0</v>
       </c>
       <c r="AP38" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ38" t="s">
         <v>3381</v>
       </c>
       <c r="AR38" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS38" t="s">
         <v>3394</v>
       </c>
-      <c r="AS38" t="s">
+      <c r="AT38" t="s">
         <v>3427</v>
       </c>
-      <c r="AT38" t="s">
+      <c r="AU38" t="s">
         <v>3468</v>
       </c>
-      <c r="AU38" t="s">
+      <c r="AV38" t="s">
         <v>3486</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -15828,22 +15949,25 @@
         <v>0</v>
       </c>
       <c r="AP39" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ39" t="s">
         <v>3384</v>
       </c>
       <c r="AR39" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS39" t="s">
         <v>3399</v>
       </c>
-      <c r="AS39" t="s">
+      <c r="AT39" t="s">
         <v>3422</v>
       </c>
-      <c r="AU39" t="s">
+      <c r="AV39" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -15947,22 +16071,25 @@
         <v>3370</v>
       </c>
       <c r="AP40" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ40" t="s">
         <v>3384</v>
       </c>
       <c r="AR40" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS40" t="s">
         <v>3399</v>
       </c>
-      <c r="AS40" t="s">
+      <c r="AT40" t="s">
         <v>3422</v>
       </c>
-      <c r="AU40" t="s">
+      <c r="AV40" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -16057,19 +16184,22 @@
         <v>3370</v>
       </c>
       <c r="AP41" t="s">
-        <v>3386</v>
+        <v>2518</v>
       </c>
       <c r="AQ41" t="s">
         <v>3386</v>
       </c>
       <c r="AR41" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AS41" t="s">
         <v>3396</v>
       </c>
-      <c r="AU41" t="s">
+      <c r="AV41" t="s">
         <v>3497</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -16182,25 +16312,28 @@
         <v>0</v>
       </c>
       <c r="AP42" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ42" t="s">
         <v>3381</v>
       </c>
       <c r="AR42" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS42" t="s">
         <v>3390</v>
       </c>
-      <c r="AS42" t="s">
+      <c r="AT42" t="s">
         <v>3429</v>
       </c>
-      <c r="AT42" t="s">
+      <c r="AU42" t="s">
         <v>3469</v>
       </c>
-      <c r="AU42" t="s">
+      <c r="AV42" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -16313,25 +16446,28 @@
         <v>0</v>
       </c>
       <c r="AP43" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ43" t="s">
         <v>3381</v>
       </c>
       <c r="AR43" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS43" t="s">
         <v>3397</v>
       </c>
-      <c r="AS43" t="s">
+      <c r="AT43" t="s">
         <v>3439</v>
       </c>
-      <c r="AT43" t="s">
+      <c r="AU43" t="s">
         <v>3509</v>
       </c>
-      <c r="AU43" t="s">
+      <c r="AV43" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -16438,25 +16574,28 @@
         <v>0</v>
       </c>
       <c r="AP44" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ44" t="s">
         <v>3385</v>
       </c>
       <c r="AR44" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS44" t="s">
         <v>3402</v>
       </c>
-      <c r="AS44" t="s">
+      <c r="AT44" t="s">
         <v>3426</v>
       </c>
-      <c r="AT44" t="s">
+      <c r="AU44" t="s">
         <v>3463</v>
       </c>
-      <c r="AU44" t="s">
+      <c r="AV44" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -16569,22 +16708,25 @@
         <v>0</v>
       </c>
       <c r="AP45" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ45" t="s">
         <v>3384</v>
       </c>
       <c r="AR45" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS45" t="s">
         <v>3403</v>
       </c>
-      <c r="AS45" t="s">
+      <c r="AT45" t="s">
         <v>3430</v>
       </c>
-      <c r="AU45" t="s">
+      <c r="AV45" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -16691,22 +16833,25 @@
         <v>0</v>
       </c>
       <c r="AP46" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ46" t="s">
         <v>3385</v>
       </c>
       <c r="AR46" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS46" t="s">
         <v>3404</v>
       </c>
-      <c r="AS46" t="s">
+      <c r="AT46" t="s">
         <v>3510</v>
       </c>
-      <c r="AU46" t="s">
+      <c r="AV46" t="s">
         <v>3511</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -16807,25 +16952,28 @@
         <v>0</v>
       </c>
       <c r="AP47" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ47" t="s">
         <v>3381</v>
       </c>
       <c r="AR47" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS47" t="s">
         <v>3390</v>
       </c>
-      <c r="AS47" t="s">
+      <c r="AT47" t="s">
         <v>3429</v>
       </c>
-      <c r="AT47" t="s">
+      <c r="AU47" t="s">
         <v>3512</v>
       </c>
-      <c r="AU47" t="s">
+      <c r="AV47" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -16938,25 +17086,28 @@
         <v>3372</v>
       </c>
       <c r="AP48" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ48" t="s">
         <v>3384</v>
       </c>
       <c r="AR48" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS48" t="s">
         <v>3401</v>
       </c>
-      <c r="AS48" t="s">
+      <c r="AT48" t="s">
         <v>3424</v>
       </c>
-      <c r="AT48" t="s">
+      <c r="AU48" t="s">
         <v>3462</v>
       </c>
-      <c r="AU48" t="s">
+      <c r="AV48" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -17072,22 +17223,25 @@
         <v>3370</v>
       </c>
       <c r="AP49" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ49" t="s">
         <v>3384</v>
       </c>
       <c r="AR49" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS49" t="s">
         <v>3399</v>
       </c>
-      <c r="AS49" t="s">
+      <c r="AT49" t="s">
         <v>3422</v>
       </c>
-      <c r="AU49" t="s">
+      <c r="AV49" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -17191,25 +17345,28 @@
         <v>3373</v>
       </c>
       <c r="AP50" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ50" t="s">
         <v>3387</v>
       </c>
       <c r="AR50" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS50" t="s">
         <v>3513</v>
       </c>
-      <c r="AS50" t="s">
+      <c r="AT50" t="s">
         <v>3514</v>
       </c>
-      <c r="AT50" t="s">
+      <c r="AU50" t="s">
         <v>3515</v>
       </c>
-      <c r="AU50" t="s">
+      <c r="AV50" t="s">
         <v>3516</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -17310,25 +17467,28 @@
         <v>3374</v>
       </c>
       <c r="AP51" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ51" t="s">
         <v>3381</v>
       </c>
       <c r="AR51" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS51" t="s">
         <v>3390</v>
       </c>
-      <c r="AS51" t="s">
+      <c r="AT51" t="s">
         <v>3412</v>
       </c>
-      <c r="AT51" t="s">
+      <c r="AU51" t="s">
         <v>3460</v>
       </c>
-      <c r="AU51" t="s">
+      <c r="AV51" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -17426,22 +17586,25 @@
         <v>0</v>
       </c>
       <c r="AP52" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ52" t="s">
         <v>3384</v>
       </c>
       <c r="AR52" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS52" t="s">
         <v>3403</v>
       </c>
-      <c r="AS52" t="s">
+      <c r="AT52" t="s">
         <v>3430</v>
       </c>
-      <c r="AU52" t="s">
+      <c r="AV52" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -17551,10 +17714,13 @@
         <v>3375</v>
       </c>
       <c r="AP53" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ53" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -17667,22 +17833,25 @@
         <v>0</v>
       </c>
       <c r="AP54" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ54" t="s">
         <v>3385</v>
       </c>
       <c r="AR54" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS54" t="s">
         <v>3404</v>
       </c>
-      <c r="AS54" t="s">
+      <c r="AT54" t="s">
         <v>3431</v>
       </c>
-      <c r="AU54" t="s">
+      <c r="AV54" t="s">
         <v>3498</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -17789,25 +17958,28 @@
         <v>0</v>
       </c>
       <c r="AP55" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ55" t="s">
         <v>3381</v>
       </c>
       <c r="AR55" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS55" t="s">
         <v>3400</v>
       </c>
-      <c r="AS55" t="s">
+      <c r="AT55" t="s">
         <v>3423</v>
       </c>
-      <c r="AT55" t="s">
+      <c r="AU55" t="s">
         <v>3470</v>
       </c>
-      <c r="AU55" t="s">
+      <c r="AV55" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -17917,10 +18089,13 @@
         <v>0</v>
       </c>
       <c r="AP56" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ56" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -18030,22 +18205,25 @@
         <v>0</v>
       </c>
       <c r="AP57" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ57" t="s">
         <v>3385</v>
       </c>
       <c r="AR57" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS57" t="s">
         <v>3392</v>
       </c>
-      <c r="AS57" t="s">
+      <c r="AT57" t="s">
         <v>3432</v>
       </c>
-      <c r="AU57" t="s">
+      <c r="AV57" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -18164,22 +18342,25 @@
         <v>0</v>
       </c>
       <c r="AP58" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ58" t="s">
         <v>3384</v>
       </c>
       <c r="AR58" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS58" t="s">
         <v>3399</v>
       </c>
-      <c r="AS58" t="s">
+      <c r="AT58" t="s">
         <v>3422</v>
       </c>
-      <c r="AU58" t="s">
+      <c r="AV58" t="s">
         <v>3494</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -18292,10 +18473,13 @@
         <v>0</v>
       </c>
       <c r="AP59" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ59" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -18402,16 +18586,19 @@
         <v>0</v>
       </c>
       <c r="AP60" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ60" t="s">
         <v>3384</v>
       </c>
-      <c r="AU60" t="s">
+      <c r="AR60" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AV60" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -18512,22 +18699,25 @@
         <v>3370</v>
       </c>
       <c r="AP61" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ61" t="s">
         <v>3384</v>
       </c>
       <c r="AR61" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS61" t="s">
         <v>3399</v>
       </c>
-      <c r="AS61" t="s">
+      <c r="AT61" t="s">
         <v>3433</v>
       </c>
-      <c r="AU61" t="s">
+      <c r="AV61" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -18643,22 +18833,25 @@
         <v>0</v>
       </c>
       <c r="AP62" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ62" t="s">
         <v>3380</v>
       </c>
       <c r="AR62" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS62" t="s">
         <v>3405</v>
       </c>
-      <c r="AS62" t="s">
+      <c r="AT62" t="s">
         <v>3434</v>
       </c>
-      <c r="AU62" t="s">
+      <c r="AV62" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -18771,19 +18964,22 @@
         <v>0</v>
       </c>
       <c r="AP63" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ63" t="s">
         <v>3380</v>
       </c>
       <c r="AR63" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS63" t="s">
         <v>3389</v>
       </c>
-      <c r="AU63" t="s">
+      <c r="AV63" t="s">
         <v>3504</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -18887,25 +19083,28 @@
         <v>3370</v>
       </c>
       <c r="AP64" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ64" t="s">
         <v>3381</v>
       </c>
       <c r="AR64" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS64" t="s">
         <v>3406</v>
       </c>
-      <c r="AS64" t="s">
+      <c r="AT64" t="s">
         <v>3435</v>
       </c>
-      <c r="AT64" t="s">
+      <c r="AU64" t="s">
         <v>3471</v>
       </c>
-      <c r="AU64" t="s">
+      <c r="AV64" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -19009,25 +19208,28 @@
         <v>0</v>
       </c>
       <c r="AP65" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ65" t="s">
         <v>3381</v>
       </c>
       <c r="AR65" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS65" t="s">
         <v>3394</v>
       </c>
-      <c r="AS65" t="s">
+      <c r="AT65" t="s">
         <v>3416</v>
       </c>
-      <c r="AT65" t="s">
+      <c r="AU65" t="s">
         <v>3472</v>
       </c>
-      <c r="AU65" t="s">
+      <c r="AV65" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -19137,22 +19339,25 @@
         <v>0</v>
       </c>
       <c r="AP66" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ66" t="s">
         <v>3380</v>
       </c>
       <c r="AR66" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS66" t="s">
         <v>3405</v>
       </c>
-      <c r="AS66" t="s">
+      <c r="AT66" t="s">
         <v>3434</v>
       </c>
-      <c r="AU66" t="s">
+      <c r="AV66" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -19259,25 +19464,28 @@
         <v>0</v>
       </c>
       <c r="AP67" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ67" t="s">
         <v>3381</v>
       </c>
       <c r="AR67" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS67" t="s">
         <v>3390</v>
       </c>
-      <c r="AS67" t="s">
+      <c r="AT67" t="s">
         <v>3412</v>
       </c>
-      <c r="AT67" t="s">
+      <c r="AU67" t="s">
         <v>3517</v>
       </c>
-      <c r="AU67" t="s">
+      <c r="AV67" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -19378,10 +19586,13 @@
         <v>3370</v>
       </c>
       <c r="AP68" t="s">
-        <v>3381</v>
+        <v>3524</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>3524</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -19488,22 +19699,25 @@
         <v>0</v>
       </c>
       <c r="AP69" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ69" t="s">
         <v>3385</v>
       </c>
       <c r="AR69" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS69" t="s">
         <v>3392</v>
       </c>
-      <c r="AS69" t="s">
+      <c r="AT69" t="s">
         <v>3414</v>
       </c>
-      <c r="AU69" t="s">
+      <c r="AV69" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -19619,22 +19833,25 @@
         <v>0</v>
       </c>
       <c r="AP70" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ70" t="s">
         <v>3387</v>
       </c>
       <c r="AR70" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS70" t="s">
         <v>3407</v>
       </c>
-      <c r="AS70" t="s">
+      <c r="AT70" t="s">
         <v>3436</v>
       </c>
-      <c r="AU70" t="s">
+      <c r="AV70" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -19732,25 +19949,28 @@
         <v>0</v>
       </c>
       <c r="AP71" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ71" t="s">
         <v>3381</v>
       </c>
       <c r="AR71" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS71" t="s">
         <v>3400</v>
       </c>
-      <c r="AS71" t="s">
+      <c r="AT71" t="s">
         <v>3423</v>
       </c>
-      <c r="AT71" t="s">
+      <c r="AU71" t="s">
         <v>3461</v>
       </c>
-      <c r="AU71" t="s">
+      <c r="AV71" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -19866,19 +20086,22 @@
         <v>0</v>
       </c>
       <c r="AP72" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ72" t="s">
         <v>3385</v>
       </c>
       <c r="AR72" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS72" t="s">
         <v>3392</v>
       </c>
-      <c r="AS72" t="s">
+      <c r="AT72" t="s">
         <v>3437</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -19997,25 +20220,28 @@
         <v>0</v>
       </c>
       <c r="AP73" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ73" t="s">
         <v>3381</v>
       </c>
       <c r="AR73" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS73" t="s">
         <v>3390</v>
       </c>
-      <c r="AS73" t="s">
+      <c r="AT73" t="s">
         <v>3429</v>
       </c>
-      <c r="AT73" t="s">
+      <c r="AU73" t="s">
         <v>3473</v>
       </c>
-      <c r="AU73" t="s">
+      <c r="AV73" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -20128,22 +20354,25 @@
         <v>0</v>
       </c>
       <c r="AP74" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ74" t="s">
         <v>3385</v>
       </c>
       <c r="AR74" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS74" t="s">
         <v>3393</v>
       </c>
-      <c r="AS74" t="s">
+      <c r="AT74" t="s">
         <v>3415</v>
       </c>
-      <c r="AU74" t="s">
+      <c r="AV74" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -20247,22 +20476,25 @@
         <v>3376</v>
       </c>
       <c r="AP75" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ75" t="s">
         <v>3387</v>
       </c>
       <c r="AR75" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS75" t="s">
         <v>3407</v>
       </c>
-      <c r="AS75" t="s">
+      <c r="AT75" t="s">
         <v>3436</v>
       </c>
-      <c r="AU75" t="s">
+      <c r="AV75" t="s">
         <v>3376</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -20354,19 +20586,22 @@
         <v>3370</v>
       </c>
       <c r="AP76" t="s">
-        <v>3386</v>
+        <v>2518</v>
       </c>
       <c r="AQ76" t="s">
         <v>3386</v>
       </c>
       <c r="AR76" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AS76" t="s">
         <v>3396</v>
       </c>
-      <c r="AU76" t="s">
+      <c r="AV76" t="s">
         <v>3499</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -20476,16 +20711,19 @@
         <v>0</v>
       </c>
       <c r="AP77" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ77" t="s">
         <v>3384</v>
       </c>
-      <c r="AU77" t="s">
+      <c r="AR77" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AV77" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -20598,25 +20836,28 @@
         <v>3370</v>
       </c>
       <c r="AP78" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ78" t="s">
         <v>3385</v>
       </c>
       <c r="AR78" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS78" t="s">
         <v>3402</v>
       </c>
-      <c r="AS78" t="s">
+      <c r="AT78" t="s">
         <v>3438</v>
       </c>
-      <c r="AT78" t="s">
+      <c r="AU78" t="s">
         <v>3474</v>
       </c>
-      <c r="AU78" t="s">
+      <c r="AV78" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -20729,25 +20970,28 @@
         <v>0</v>
       </c>
       <c r="AP79" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ79" t="s">
         <v>3380</v>
       </c>
       <c r="AR79" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS79" t="s">
         <v>3518</v>
       </c>
-      <c r="AS79" t="s">
+      <c r="AT79" t="s">
         <v>3519</v>
       </c>
-      <c r="AT79" t="s">
+      <c r="AU79" t="s">
         <v>3520</v>
       </c>
-      <c r="AU79" t="s">
+      <c r="AV79" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -20851,25 +21095,28 @@
         <v>0</v>
       </c>
       <c r="AP80" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ80" t="s">
         <v>3381</v>
       </c>
       <c r="AR80" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS80" t="s">
         <v>3394</v>
       </c>
-      <c r="AS80" t="s">
+      <c r="AT80" t="s">
         <v>3416</v>
       </c>
-      <c r="AT80" t="s">
+      <c r="AU80" t="s">
         <v>3521</v>
       </c>
-      <c r="AU80" t="s">
+      <c r="AV80" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -20988,25 +21235,28 @@
         <v>0</v>
       </c>
       <c r="AP81" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ81" t="s">
         <v>3381</v>
       </c>
       <c r="AR81" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS81" t="s">
         <v>3397</v>
       </c>
-      <c r="AS81" t="s">
+      <c r="AT81" t="s">
         <v>3439</v>
       </c>
-      <c r="AT81" t="s">
+      <c r="AU81" t="s">
         <v>3475</v>
       </c>
-      <c r="AU81" t="s">
+      <c r="AV81" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -21113,25 +21363,28 @@
         <v>3370</v>
       </c>
       <c r="AP82" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ82" t="s">
         <v>3385</v>
       </c>
       <c r="AR82" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS82" t="s">
         <v>3402</v>
       </c>
-      <c r="AS82" t="s">
+      <c r="AT82" t="s">
         <v>3426</v>
       </c>
-      <c r="AT82" t="s">
+      <c r="AU82" t="s">
         <v>3463</v>
       </c>
-      <c r="AU82" t="s">
+      <c r="AV82" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -21229,25 +21482,28 @@
         <v>3370</v>
       </c>
       <c r="AP83" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ83" t="s">
         <v>3381</v>
       </c>
       <c r="AR83" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS83" t="s">
         <v>3406</v>
       </c>
-      <c r="AS83" t="s">
+      <c r="AT83" t="s">
         <v>3435</v>
       </c>
-      <c r="AT83" t="s">
+      <c r="AU83" t="s">
         <v>3471</v>
       </c>
-      <c r="AU83" t="s">
+      <c r="AV83" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -21348,22 +21604,25 @@
         <v>0</v>
       </c>
       <c r="AP84" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ84" t="s">
         <v>3387</v>
       </c>
       <c r="AR84" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS84" t="s">
         <v>3407</v>
       </c>
-      <c r="AS84" t="s">
+      <c r="AT84" t="s">
         <v>3440</v>
       </c>
-      <c r="AU84" t="s">
+      <c r="AV84" t="s">
         <v>3500</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -21476,22 +21735,25 @@
         <v>0</v>
       </c>
       <c r="AP85" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ85" t="s">
         <v>3385</v>
       </c>
       <c r="AR85" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS85" t="s">
         <v>3392</v>
       </c>
-      <c r="AS85" t="s">
+      <c r="AT85" t="s">
         <v>3441</v>
       </c>
-      <c r="AU85" t="s">
+      <c r="AV85" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -21586,25 +21848,28 @@
         <v>3370</v>
       </c>
       <c r="AP86" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ86" t="s">
         <v>3385</v>
       </c>
       <c r="AR86" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS86" t="s">
         <v>3402</v>
       </c>
-      <c r="AS86" t="s">
+      <c r="AT86" t="s">
         <v>3438</v>
       </c>
-      <c r="AT86" t="s">
+      <c r="AU86" t="s">
         <v>3476</v>
       </c>
-      <c r="AU86" t="s">
+      <c r="AV86" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -21717,22 +21982,25 @@
         <v>0</v>
       </c>
       <c r="AP87" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ87" t="s">
         <v>3385</v>
       </c>
       <c r="AR87" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS87" t="s">
         <v>3393</v>
       </c>
-      <c r="AS87" t="s">
+      <c r="AT87" t="s">
         <v>3415</v>
       </c>
-      <c r="AU87" t="s">
+      <c r="AV87" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -21845,25 +22113,28 @@
         <v>3377</v>
       </c>
       <c r="AP88" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ88" t="s">
         <v>3381</v>
       </c>
       <c r="AR88" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS88" t="s">
         <v>3390</v>
       </c>
-      <c r="AS88" t="s">
+      <c r="AT88" t="s">
         <v>3412</v>
       </c>
-      <c r="AT88" t="s">
+      <c r="AU88" t="s">
         <v>3456</v>
       </c>
-      <c r="AU88" t="s">
+      <c r="AV88" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -21976,22 +22247,25 @@
         <v>0</v>
       </c>
       <c r="AP89" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ89" t="s">
         <v>3384</v>
       </c>
       <c r="AR89" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS89" t="s">
         <v>3399</v>
       </c>
-      <c r="AS89" t="s">
+      <c r="AT89" t="s">
         <v>3433</v>
       </c>
-      <c r="AU89" t="s">
+      <c r="AV89" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -22089,25 +22363,28 @@
         <v>3370</v>
       </c>
       <c r="AP90" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ90" t="s">
         <v>3381</v>
       </c>
       <c r="AR90" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS90" t="s">
         <v>3394</v>
       </c>
-      <c r="AS90" t="s">
+      <c r="AT90" t="s">
         <v>3416</v>
       </c>
-      <c r="AT90" t="s">
+      <c r="AU90" t="s">
         <v>3458</v>
       </c>
-      <c r="AU90" t="s">
+      <c r="AV90" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -22220,25 +22497,28 @@
         <v>0</v>
       </c>
       <c r="AP91" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ91" t="s">
         <v>3381</v>
       </c>
       <c r="AR91" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS91" t="s">
         <v>3394</v>
       </c>
-      <c r="AS91" t="s">
+      <c r="AT91" t="s">
         <v>3416</v>
       </c>
-      <c r="AT91" t="s">
+      <c r="AU91" t="s">
         <v>3521</v>
       </c>
-      <c r="AU91" t="s">
+      <c r="AV91" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -22345,16 +22625,19 @@
         <v>3370</v>
       </c>
       <c r="AP92" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ92" t="s">
         <v>3381</v>
       </c>
-      <c r="AU92" t="s">
+      <c r="AR92" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AV92" t="s">
         <v>3501</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -22470,22 +22753,25 @@
         <v>0</v>
       </c>
       <c r="AP93" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ93" t="s">
         <v>3385</v>
       </c>
       <c r="AR93" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS93" t="s">
         <v>3402</v>
       </c>
-      <c r="AS93" t="s">
+      <c r="AT93" t="s">
         <v>3442</v>
       </c>
-      <c r="AU93" t="s">
+      <c r="AV93" t="s">
         <v>3502</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -22577,25 +22863,28 @@
         <v>3370</v>
       </c>
       <c r="AP94" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ94" t="s">
         <v>3385</v>
       </c>
       <c r="AR94" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS94" t="s">
         <v>3393</v>
       </c>
-      <c r="AS94" t="s">
+      <c r="AT94" t="s">
         <v>3415</v>
       </c>
-      <c r="AT94" t="s">
+      <c r="AU94" t="s">
         <v>3477</v>
       </c>
-      <c r="AU94" t="s">
+      <c r="AV94" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -22702,22 +22991,25 @@
         <v>3370</v>
       </c>
       <c r="AP95" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ95" t="s">
         <v>3380</v>
       </c>
       <c r="AR95" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS95" t="s">
         <v>3408</v>
       </c>
-      <c r="AS95" t="s">
+      <c r="AT95" t="s">
         <v>3443</v>
       </c>
-      <c r="AU95" t="s">
+      <c r="AV95" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -22830,25 +23122,28 @@
         <v>3370</v>
       </c>
       <c r="AP96" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ96" t="s">
         <v>3385</v>
       </c>
       <c r="AR96" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS96" t="s">
         <v>3402</v>
       </c>
-      <c r="AS96" t="s">
+      <c r="AT96" t="s">
         <v>3426</v>
       </c>
-      <c r="AT96" t="s">
+      <c r="AU96" t="s">
         <v>3466</v>
       </c>
-      <c r="AU96" t="s">
+      <c r="AV96" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -22961,22 +23256,25 @@
         <v>0</v>
       </c>
       <c r="AP97" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ97" t="s">
         <v>3384</v>
       </c>
       <c r="AR97" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS97" t="s">
         <v>3399</v>
       </c>
-      <c r="AS97" t="s">
+      <c r="AT97" t="s">
         <v>3422</v>
       </c>
-      <c r="AU97" t="s">
+      <c r="AV97" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -23080,25 +23378,28 @@
         <v>0</v>
       </c>
       <c r="AP98" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ98" t="s">
         <v>3381</v>
       </c>
       <c r="AR98" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS98" t="s">
         <v>3397</v>
       </c>
-      <c r="AS98" t="s">
+      <c r="AT98" t="s">
         <v>3419</v>
       </c>
-      <c r="AT98" t="s">
+      <c r="AU98" t="s">
         <v>3478</v>
       </c>
-      <c r="AU98" t="s">
+      <c r="AV98" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -23214,22 +23515,25 @@
         <v>0</v>
       </c>
       <c r="AP99" t="s">
-        <v>3388</v>
+        <v>2518</v>
       </c>
       <c r="AQ99" t="s">
         <v>3388</v>
       </c>
       <c r="AR99" t="s">
+        <v>3388</v>
+      </c>
+      <c r="AS99" t="s">
         <v>3409</v>
       </c>
-      <c r="AS99" t="s">
+      <c r="AT99" t="s">
         <v>3444</v>
       </c>
-      <c r="AU99" t="s">
+      <c r="AV99" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -23339,25 +23643,28 @@
         <v>3370</v>
       </c>
       <c r="AP100" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ100" t="s">
         <v>3381</v>
       </c>
       <c r="AR100" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS100" t="s">
         <v>3400</v>
       </c>
-      <c r="AS100" t="s">
+      <c r="AT100" t="s">
         <v>3423</v>
       </c>
-      <c r="AT100" t="s">
+      <c r="AU100" t="s">
         <v>3461</v>
       </c>
-      <c r="AU100" t="s">
+      <c r="AV100" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -23476,25 +23783,28 @@
         <v>3370</v>
       </c>
       <c r="AP101" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ101" t="s">
         <v>3381</v>
       </c>
       <c r="AR101" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS101" t="s">
         <v>3394</v>
       </c>
-      <c r="AS101" t="s">
+      <c r="AT101" t="s">
         <v>3416</v>
       </c>
-      <c r="AT101" t="s">
+      <c r="AU101" t="s">
         <v>3479</v>
       </c>
-      <c r="AU101" t="s">
+      <c r="AV101" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -23610,25 +23920,28 @@
         <v>0</v>
       </c>
       <c r="AP102" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ102" t="s">
         <v>3381</v>
       </c>
       <c r="AR102" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS102" t="s">
         <v>3390</v>
       </c>
-      <c r="AS102" t="s">
+      <c r="AT102" t="s">
         <v>3428</v>
       </c>
-      <c r="AT102" t="s">
+      <c r="AU102" t="s">
         <v>3480</v>
       </c>
-      <c r="AU102" t="s">
+      <c r="AV102" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -23729,22 +24042,25 @@
         <v>3370</v>
       </c>
       <c r="AP103" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ103" t="s">
         <v>3387</v>
       </c>
       <c r="AR103" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS103" t="s">
         <v>3410</v>
       </c>
-      <c r="AS103" t="s">
+      <c r="AT103" t="s">
         <v>3445</v>
       </c>
-      <c r="AU103" t="s">
+      <c r="AV103" t="s">
         <v>3503</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -23860,13 +24176,16 @@
         <v>0</v>
       </c>
       <c r="AP104" t="s">
-        <v>3382</v>
+        <v>2518</v>
       </c>
       <c r="AQ104" t="s">
         <v>3382</v>
       </c>
+      <c r="AR104" t="s">
+        <v>3382</v>
+      </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -23976,22 +24295,25 @@
         <v>0</v>
       </c>
       <c r="AP105" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ105" t="s">
         <v>3385</v>
       </c>
       <c r="AR105" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS105" t="s">
         <v>3392</v>
       </c>
-      <c r="AS105" t="s">
+      <c r="AT105" t="s">
         <v>3446</v>
       </c>
-      <c r="AU105" t="s">
+      <c r="AV105" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -24098,19 +24420,22 @@
         <v>0</v>
       </c>
       <c r="AP106" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ106" t="s">
         <v>3380</v>
       </c>
       <c r="AR106" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS106" t="s">
         <v>3389</v>
       </c>
-      <c r="AU106" t="s">
+      <c r="AV106" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -24220,25 +24545,28 @@
         <v>0</v>
       </c>
       <c r="AP107" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ107" t="s">
         <v>3385</v>
       </c>
       <c r="AR107" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS107" t="s">
         <v>3402</v>
       </c>
-      <c r="AS107" t="s">
+      <c r="AT107" t="s">
         <v>3426</v>
       </c>
-      <c r="AT107" t="s">
+      <c r="AU107" t="s">
         <v>3463</v>
       </c>
-      <c r="AU107" t="s">
+      <c r="AV107" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -24345,22 +24673,25 @@
         <v>3370</v>
       </c>
       <c r="AP108" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ108" t="s">
         <v>3385</v>
       </c>
       <c r="AR108" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS108" t="s">
         <v>3392</v>
       </c>
-      <c r="AS108" t="s">
+      <c r="AT108" t="s">
         <v>3447</v>
       </c>
-      <c r="AU108" t="s">
+      <c r="AV108" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -24464,25 +24795,28 @@
         <v>0</v>
       </c>
       <c r="AP109" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ109" t="s">
         <v>3381</v>
       </c>
       <c r="AR109" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS109" t="s">
         <v>3400</v>
       </c>
-      <c r="AS109" t="s">
+      <c r="AT109" t="s">
         <v>3419</v>
       </c>
-      <c r="AT109" t="s">
+      <c r="AU109" t="s">
         <v>3483</v>
       </c>
-      <c r="AU109" t="s">
+      <c r="AV109" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -24589,25 +24923,28 @@
         <v>0</v>
       </c>
       <c r="AP110" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ110" t="s">
         <v>3381</v>
       </c>
       <c r="AR110" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS110" t="s">
         <v>3390</v>
       </c>
-      <c r="AS110" t="s">
+      <c r="AT110" t="s">
         <v>3412</v>
       </c>
-      <c r="AT110" t="s">
+      <c r="AU110" t="s">
         <v>3460</v>
       </c>
-      <c r="AU110" t="s">
+      <c r="AV110" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -24717,22 +25054,25 @@
         <v>0</v>
       </c>
       <c r="AP111" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ111" t="s">
         <v>3384</v>
       </c>
       <c r="AR111" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS111" t="s">
         <v>3403</v>
       </c>
-      <c r="AS111" t="s">
+      <c r="AT111" t="s">
         <v>3430</v>
       </c>
-      <c r="AU111" t="s">
+      <c r="AV111" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -24842,22 +25182,25 @@
         <v>3370</v>
       </c>
       <c r="AP112" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ112" t="s">
         <v>3387</v>
       </c>
       <c r="AR112" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS112" t="s">
         <v>3407</v>
       </c>
-      <c r="AS112" t="s">
+      <c r="AT112" t="s">
         <v>3436</v>
       </c>
-      <c r="AU112" t="s">
+      <c r="AV112" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -24964,25 +25307,28 @@
         <v>3370</v>
       </c>
       <c r="AP113" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ113" t="s">
         <v>3381</v>
       </c>
       <c r="AR113" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS113" t="s">
         <v>3397</v>
       </c>
-      <c r="AS113" t="s">
+      <c r="AT113" t="s">
         <v>3439</v>
       </c>
-      <c r="AT113" t="s">
+      <c r="AU113" t="s">
         <v>3475</v>
       </c>
-      <c r="AU113" t="s">
+      <c r="AV113" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -25092,10 +25438,13 @@
         <v>0</v>
       </c>
       <c r="AP114" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ114" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -25208,22 +25557,25 @@
         <v>0</v>
       </c>
       <c r="AP115" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ115" t="s">
         <v>3381</v>
       </c>
       <c r="AR115" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS115" t="s">
         <v>3400</v>
       </c>
-      <c r="AS115" t="s">
+      <c r="AT115" t="s">
         <v>3448</v>
       </c>
-      <c r="AU115" t="s">
+      <c r="AV115" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -25336,10 +25688,13 @@
         <v>0</v>
       </c>
       <c r="AP116" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ116" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
@@ -25446,19 +25801,22 @@
         <v>3370</v>
       </c>
       <c r="AP117" t="s">
-        <v>3386</v>
+        <v>2518</v>
       </c>
       <c r="AQ117" t="s">
         <v>3386</v>
       </c>
       <c r="AR117" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AS117" t="s">
         <v>3396</v>
       </c>
-      <c r="AU117" t="s">
+      <c r="AV117" t="s">
         <v>3495</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
@@ -25574,25 +25932,28 @@
         <v>0</v>
       </c>
       <c r="AP118" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ118" t="s">
         <v>3381</v>
       </c>
       <c r="AR118" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS118" t="s">
         <v>3390</v>
       </c>
-      <c r="AS118" t="s">
+      <c r="AT118" t="s">
         <v>3412</v>
       </c>
-      <c r="AT118" t="s">
+      <c r="AU118" t="s">
         <v>3460</v>
       </c>
-      <c r="AU118" t="s">
+      <c r="AV118" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -25698,8 +26059,14 @@
       <c r="AO119" t="s">
         <v>3378</v>
       </c>
+      <c r="AP119" t="s">
+        <v>3524</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>3524</v>
+      </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
@@ -25809,10 +26176,13 @@
         <v>0</v>
       </c>
       <c r="AP120" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ120" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -25913,10 +26283,13 @@
         <v>0</v>
       </c>
       <c r="AP121" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ121" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
@@ -26026,19 +26399,22 @@
         <v>3370</v>
       </c>
       <c r="AP122" t="s">
-        <v>3380</v>
+        <v>2518</v>
       </c>
       <c r="AQ122" t="s">
         <v>3380</v>
       </c>
       <c r="AR122" t="s">
+        <v>3380</v>
+      </c>
+      <c r="AS122" t="s">
         <v>3389</v>
       </c>
-      <c r="AU122" t="s">
+      <c r="AV122" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -26142,22 +26518,25 @@
         <v>0</v>
       </c>
       <c r="AP123" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ123" t="s">
         <v>3385</v>
       </c>
       <c r="AR123" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS123" t="s">
         <v>3392</v>
       </c>
-      <c r="AS123" t="s">
+      <c r="AT123" t="s">
         <v>3425</v>
       </c>
-      <c r="AU123" t="s">
+      <c r="AV123" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>169</v>
       </c>
@@ -26276,22 +26655,25 @@
         <v>0</v>
       </c>
       <c r="AP124" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ124" t="s">
         <v>3385</v>
       </c>
       <c r="AR124" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS124" t="s">
         <v>3395</v>
       </c>
-      <c r="AS124" t="s">
+      <c r="AT124" t="s">
         <v>3418</v>
       </c>
-      <c r="AU124" t="s">
+      <c r="AV124" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -26398,25 +26780,28 @@
         <v>0</v>
       </c>
       <c r="AP125" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ125" t="s">
         <v>3381</v>
       </c>
       <c r="AR125" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS125" t="s">
         <v>3406</v>
       </c>
-      <c r="AS125" t="s">
+      <c r="AT125" t="s">
         <v>3435</v>
       </c>
-      <c r="AT125" t="s">
+      <c r="AU125" t="s">
         <v>3471</v>
       </c>
-      <c r="AU125" t="s">
+      <c r="AV125" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>171</v>
       </c>
@@ -26532,22 +26917,25 @@
         <v>3370</v>
       </c>
       <c r="AP126" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ126" t="s">
         <v>3384</v>
       </c>
       <c r="AR126" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS126" t="s">
         <v>3403</v>
       </c>
-      <c r="AS126" t="s">
+      <c r="AT126" t="s">
         <v>3430</v>
       </c>
-      <c r="AU126" t="s">
+      <c r="AV126" t="s">
         <v>3487</v>
       </c>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -26660,10 +27048,13 @@
         <v>0</v>
       </c>
       <c r="AP127" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ127" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -26764,22 +27155,25 @@
         <v>0</v>
       </c>
       <c r="AP128" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ128" t="s">
         <v>3385</v>
       </c>
       <c r="AR128" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS128" t="s">
         <v>3392</v>
       </c>
-      <c r="AS128" t="s">
+      <c r="AT128" t="s">
         <v>3414</v>
       </c>
-      <c r="AU128" t="s">
+      <c r="AV128" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>174</v>
       </c>
@@ -26889,22 +27283,25 @@
         <v>0</v>
       </c>
       <c r="AP129" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ129" t="s">
         <v>3387</v>
       </c>
       <c r="AR129" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS129" t="s">
         <v>3407</v>
       </c>
-      <c r="AS129" t="s">
+      <c r="AT129" t="s">
         <v>3449</v>
       </c>
-      <c r="AU129" t="s">
+      <c r="AV129" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -27017,22 +27414,25 @@
         <v>0</v>
       </c>
       <c r="AP130" t="s">
-        <v>3388</v>
+        <v>2518</v>
       </c>
       <c r="AQ130" t="s">
         <v>3388</v>
       </c>
       <c r="AR130" t="s">
+        <v>3388</v>
+      </c>
+      <c r="AS130" t="s">
         <v>3411</v>
       </c>
-      <c r="AS130" t="s">
+      <c r="AT130" t="s">
         <v>3450</v>
       </c>
-      <c r="AU130" t="s">
+      <c r="AV130" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>176</v>
       </c>
@@ -27130,25 +27530,28 @@
         <v>3370</v>
       </c>
       <c r="AP131" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ131" t="s">
         <v>3381</v>
       </c>
       <c r="AR131" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS131" t="s">
         <v>3390</v>
       </c>
-      <c r="AS131" t="s">
+      <c r="AT131" t="s">
         <v>3412</v>
       </c>
-      <c r="AT131" t="s">
+      <c r="AU131" t="s">
         <v>3460</v>
       </c>
-      <c r="AU131" t="s">
+      <c r="AV131" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -27251,8 +27654,14 @@
       <c r="AO132" t="s">
         <v>3370</v>
       </c>
+      <c r="AP132" t="s">
+        <v>3524</v>
+      </c>
+      <c r="AQ132" t="s">
+        <v>3524</v>
+      </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -27365,10 +27774,13 @@
         <v>3379</v>
       </c>
       <c r="AP133" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ133" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -27475,22 +27887,25 @@
         <v>0</v>
       </c>
       <c r="AP134" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ134" t="s">
         <v>3385</v>
       </c>
       <c r="AR134" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS134" t="s">
         <v>3392</v>
       </c>
-      <c r="AS134" t="s">
+      <c r="AT134" t="s">
         <v>3447</v>
       </c>
-      <c r="AU134" t="s">
+      <c r="AV134" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -27588,22 +28003,25 @@
         <v>3370</v>
       </c>
       <c r="AP135" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ135" t="s">
         <v>3384</v>
       </c>
       <c r="AR135" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS135" t="s">
         <v>3399</v>
       </c>
-      <c r="AS135" t="s">
+      <c r="AT135" t="s">
         <v>3422</v>
       </c>
-      <c r="AU135" t="s">
+      <c r="AV135" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -27713,22 +28131,25 @@
         <v>0</v>
       </c>
       <c r="AP136" t="s">
-        <v>3388</v>
+        <v>2518</v>
       </c>
       <c r="AQ136" t="s">
         <v>3388</v>
       </c>
       <c r="AR136" t="s">
+        <v>3388</v>
+      </c>
+      <c r="AS136" t="s">
         <v>3522</v>
       </c>
-      <c r="AS136" t="s">
+      <c r="AT136" t="s">
         <v>3523</v>
       </c>
-      <c r="AU136" t="s">
+      <c r="AV136" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -27841,10 +28262,13 @@
         <v>3370</v>
       </c>
       <c r="AP137" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ137" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -27939,22 +28363,25 @@
         <v>3370</v>
       </c>
       <c r="AP138" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ138" t="s">
         <v>3384</v>
       </c>
       <c r="AR138" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS138" t="s">
         <v>3399</v>
       </c>
-      <c r="AS138" t="s">
+      <c r="AT138" t="s">
         <v>3422</v>
       </c>
-      <c r="AU138" t="s">
+      <c r="AV138" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -28067,25 +28494,28 @@
         <v>3370</v>
       </c>
       <c r="AP139" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ139" t="s">
         <v>3381</v>
       </c>
       <c r="AR139" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS139" t="s">
         <v>3400</v>
       </c>
-      <c r="AS139" t="s">
+      <c r="AT139" t="s">
         <v>3419</v>
       </c>
-      <c r="AT139" t="s">
+      <c r="AU139" t="s">
         <v>3483</v>
       </c>
-      <c r="AU139" t="s">
+      <c r="AV139" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -28195,22 +28625,25 @@
         <v>0</v>
       </c>
       <c r="AP140" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ140" t="s">
         <v>3384</v>
       </c>
       <c r="AR140" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS140" t="s">
         <v>3399</v>
       </c>
-      <c r="AS140" t="s">
+      <c r="AT140" t="s">
         <v>3422</v>
       </c>
-      <c r="AU140" t="s">
+      <c r="AV140" t="s">
         <v>3487</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>186</v>
       </c>
@@ -28308,19 +28741,22 @@
         <v>0</v>
       </c>
       <c r="AP141" t="s">
-        <v>3386</v>
+        <v>2518</v>
       </c>
       <c r="AQ141" t="s">
         <v>3386</v>
       </c>
       <c r="AR141" t="s">
+        <v>3386</v>
+      </c>
+      <c r="AS141" t="s">
         <v>3396</v>
       </c>
-      <c r="AU141" t="s">
+      <c r="AV141" t="s">
         <v>3495</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -28421,25 +28857,28 @@
         <v>3370</v>
       </c>
       <c r="AP142" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ142" t="s">
         <v>3384</v>
       </c>
       <c r="AR142" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS142" t="s">
         <v>3401</v>
       </c>
-      <c r="AS142" t="s">
+      <c r="AT142" t="s">
         <v>3424</v>
       </c>
-      <c r="AT142" t="s">
+      <c r="AU142" t="s">
         <v>3462</v>
       </c>
-      <c r="AU142" t="s">
+      <c r="AV142" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -28552,25 +28991,28 @@
         <v>0</v>
       </c>
       <c r="AP143" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ143" t="s">
         <v>3381</v>
       </c>
       <c r="AR143" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS143" t="s">
         <v>3400</v>
       </c>
-      <c r="AS143" t="s">
+      <c r="AT143" t="s">
         <v>3419</v>
       </c>
-      <c r="AT143" t="s">
+      <c r="AU143" t="s">
         <v>3481</v>
       </c>
-      <c r="AU143" t="s">
+      <c r="AV143" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -28683,22 +29125,25 @@
         <v>0</v>
       </c>
       <c r="AP144" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ144" t="s">
         <v>3384</v>
       </c>
       <c r="AR144" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS144" t="s">
         <v>3399</v>
       </c>
-      <c r="AS144" t="s">
+      <c r="AT144" t="s">
         <v>3422</v>
       </c>
-      <c r="AU144" t="s">
+      <c r="AV144" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>190</v>
       </c>
@@ -28811,25 +29256,28 @@
         <v>0</v>
       </c>
       <c r="AP145" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ145" t="s">
         <v>3381</v>
       </c>
       <c r="AR145" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS145" t="s">
         <v>3390</v>
       </c>
-      <c r="AS145" t="s">
+      <c r="AT145" t="s">
         <v>3412</v>
       </c>
-      <c r="AT145" t="s">
+      <c r="AU145" t="s">
         <v>3482</v>
       </c>
-      <c r="AU145" t="s">
+      <c r="AV145" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>191</v>
       </c>
@@ -28936,22 +29384,25 @@
         <v>3370</v>
       </c>
       <c r="AP146" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ146" t="s">
         <v>3387</v>
       </c>
       <c r="AR146" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS146" t="s">
         <v>3407</v>
       </c>
-      <c r="AS146" t="s">
+      <c r="AT146" t="s">
         <v>3436</v>
       </c>
-      <c r="AU146" t="s">
+      <c r="AV146" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>192</v>
       </c>
@@ -29058,22 +29509,25 @@
         <v>0</v>
       </c>
       <c r="AP147" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ147" t="s">
         <v>3384</v>
       </c>
       <c r="AR147" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS147" t="s">
         <v>3399</v>
       </c>
-      <c r="AS147" t="s">
+      <c r="AT147" t="s">
         <v>3422</v>
       </c>
-      <c r="AU147" t="s">
+      <c r="AV147" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>193</v>
       </c>
@@ -29182,8 +29636,14 @@
       <c r="AO148">
         <v>0</v>
       </c>
+      <c r="AP148" t="s">
+        <v>3524</v>
+      </c>
+      <c r="AQ148" t="s">
+        <v>3524</v>
+      </c>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>194</v>
       </c>
@@ -29296,22 +29756,25 @@
         <v>3370</v>
       </c>
       <c r="AP149" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ149" t="s">
         <v>3387</v>
       </c>
       <c r="AR149" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS149" t="s">
         <v>3407</v>
       </c>
-      <c r="AS149" t="s">
+      <c r="AT149" t="s">
         <v>3451</v>
       </c>
-      <c r="AU149" t="s">
+      <c r="AV149" t="s">
         <v>3504</v>
       </c>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>195</v>
       </c>
@@ -29417,8 +29880,14 @@
       <c r="AO150" t="s">
         <v>3370</v>
       </c>
+      <c r="AP150" t="s">
+        <v>3524</v>
+      </c>
+      <c r="AQ150" t="s">
+        <v>3524</v>
+      </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>196</v>
       </c>
@@ -29519,22 +29988,25 @@
         <v>3370</v>
       </c>
       <c r="AP151" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ151" t="s">
         <v>3381</v>
       </c>
       <c r="AR151" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS151" t="s">
         <v>3400</v>
       </c>
-      <c r="AS151" t="s">
+      <c r="AT151" t="s">
         <v>3448</v>
       </c>
-      <c r="AU151" t="s">
+      <c r="AV151" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>197</v>
       </c>
@@ -29647,22 +30119,25 @@
         <v>0</v>
       </c>
       <c r="AP152" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ152" t="s">
         <v>3384</v>
       </c>
       <c r="AR152" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS152" t="s">
         <v>3399</v>
       </c>
-      <c r="AS152" t="s">
+      <c r="AT152" t="s">
         <v>3422</v>
       </c>
-      <c r="AU152" t="s">
+      <c r="AV152" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>198</v>
       </c>
@@ -29766,19 +30241,22 @@
         <v>3370</v>
       </c>
       <c r="AP153" t="s">
-        <v>3387</v>
+        <v>2518</v>
       </c>
       <c r="AQ153" t="s">
         <v>3387</v>
       </c>
       <c r="AR153" t="s">
+        <v>3387</v>
+      </c>
+      <c r="AS153" t="s">
         <v>3407</v>
       </c>
-      <c r="AS153" t="s">
+      <c r="AT153" t="s">
         <v>3436</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -29876,25 +30354,28 @@
         <v>3370</v>
       </c>
       <c r="AP154" t="s">
-        <v>3383</v>
+        <v>2518</v>
       </c>
       <c r="AQ154" t="s">
         <v>3383</v>
       </c>
       <c r="AR154" t="s">
+        <v>3383</v>
+      </c>
+      <c r="AS154" t="s">
         <v>3398</v>
       </c>
-      <c r="AS154" t="s">
+      <c r="AT154" t="s">
         <v>3452</v>
       </c>
-      <c r="AT154" t="s">
+      <c r="AU154" t="s">
         <v>3484</v>
       </c>
-      <c r="AU154" t="s">
+      <c r="AV154" t="s">
         <v>3505</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -30004,25 +30485,28 @@
         <v>3370</v>
       </c>
       <c r="AP155" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ155" t="s">
         <v>3385</v>
       </c>
       <c r="AR155" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS155" t="s">
         <v>3402</v>
       </c>
-      <c r="AS155" t="s">
+      <c r="AT155" t="s">
         <v>3438</v>
       </c>
-      <c r="AT155" t="s">
+      <c r="AU155" t="s">
         <v>3476</v>
       </c>
-      <c r="AU155" t="s">
+      <c r="AV155" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>201</v>
       </c>
@@ -30141,16 +30625,19 @@
         <v>3370</v>
       </c>
       <c r="AP156" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ156" t="s">
         <v>3384</v>
       </c>
-      <c r="AU156" t="s">
+      <c r="AR156" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AV156" t="s">
         <v>3494</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -30263,22 +30750,25 @@
         <v>3370</v>
       </c>
       <c r="AP157" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ157" t="s">
         <v>3384</v>
       </c>
       <c r="AR157" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS157" t="s">
         <v>3399</v>
       </c>
-      <c r="AS157" t="s">
+      <c r="AT157" t="s">
         <v>3422</v>
       </c>
-      <c r="AU157" t="s">
+      <c r="AV157" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -30391,10 +30881,13 @@
         <v>0</v>
       </c>
       <c r="AP158" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ158" t="s">
         <v>3380</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>204</v>
       </c>
@@ -30495,10 +30988,13 @@
         <v>0</v>
       </c>
       <c r="AP159" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ159" t="s">
         <v>3380</v>
       </c>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -30596,10 +31092,13 @@
         <v>3370</v>
       </c>
       <c r="AP160" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ160" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -30703,28 +31202,31 @@
         <v>1</v>
       </c>
       <c r="AO161" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="AP161" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ161" t="s">
         <v>3385</v>
       </c>
       <c r="AR161" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS161" t="s">
         <v>3402</v>
       </c>
-      <c r="AS161" t="s">
+      <c r="AT161" t="s">
         <v>3438</v>
       </c>
-      <c r="AT161" t="s">
+      <c r="AU161" t="s">
         <v>2979</v>
       </c>
-      <c r="AU161" t="s">
+      <c r="AV161" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>207</v>
       </c>
@@ -30837,10 +31339,13 @@
         <v>0</v>
       </c>
       <c r="AP162" t="s">
-        <v>3525</v>
+        <v>2519</v>
+      </c>
+      <c r="AQ162" t="s">
+        <v>3526</v>
       </c>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>208</v>
       </c>
@@ -30953,10 +31458,13 @@
         <v>0</v>
       </c>
       <c r="AP163" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ163" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -31063,10 +31571,13 @@
         <v>0</v>
       </c>
       <c r="AP164" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ164" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>210</v>
       </c>
@@ -31179,19 +31690,22 @@
         <v>0</v>
       </c>
       <c r="AP165" t="s">
-        <v>3385</v>
+        <v>2519</v>
       </c>
       <c r="AQ165" t="s">
         <v>3385</v>
       </c>
       <c r="AR165" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS165" t="s">
         <v>3402</v>
       </c>
-      <c r="AS165" t="s">
+      <c r="AT165" t="s">
         <v>3442</v>
       </c>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -31304,10 +31818,13 @@
         <v>0</v>
       </c>
       <c r="AP166" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ166" t="s">
         <v>3380</v>
       </c>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -31405,10 +31922,13 @@
         <v>0</v>
       </c>
       <c r="AP167" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AQ167" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -31521,16 +32041,19 @@
         <v>3370</v>
       </c>
       <c r="AP168" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ168" t="s">
         <v>3384</v>
       </c>
-      <c r="AU168" t="s">
+      <c r="AR168" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AV168" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -31634,22 +32157,25 @@
         <v>3370</v>
       </c>
       <c r="AP169" t="s">
-        <v>3384</v>
+        <v>2518</v>
       </c>
       <c r="AQ169" t="s">
         <v>3384</v>
       </c>
       <c r="AR169" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AS169" t="s">
         <v>3403</v>
       </c>
-      <c r="AS169" t="s">
+      <c r="AT169" t="s">
         <v>3453</v>
       </c>
-      <c r="AU169" t="s">
+      <c r="AV169" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -31747,25 +32273,28 @@
         <v>3370</v>
       </c>
       <c r="AP170" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ170" t="s">
         <v>3381</v>
       </c>
       <c r="AR170" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS170" t="s">
         <v>3390</v>
       </c>
-      <c r="AS170" t="s">
+      <c r="AT170" t="s">
         <v>3428</v>
       </c>
-      <c r="AT170" t="s">
+      <c r="AU170" t="s">
         <v>3465</v>
       </c>
-      <c r="AU170" t="s">
+      <c r="AV170" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -31875,25 +32404,28 @@
         <v>0</v>
       </c>
       <c r="AP171" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ171" t="s">
         <v>3381</v>
       </c>
       <c r="AR171" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS171" t="s">
         <v>3390</v>
       </c>
-      <c r="AS171" t="s">
+      <c r="AT171" t="s">
         <v>3412</v>
       </c>
-      <c r="AT171" t="s">
+      <c r="AU171" t="s">
         <v>3485</v>
       </c>
-      <c r="AU171" t="s">
+      <c r="AV171" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>217</v>
       </c>
@@ -31996,8 +32528,14 @@
       <c r="AO172">
         <v>0</v>
       </c>
+      <c r="AP172" t="s">
+        <v>3524</v>
+      </c>
+      <c r="AQ172" t="s">
+        <v>3524</v>
+      </c>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>218</v>
       </c>
@@ -32095,25 +32633,28 @@
         <v>3370</v>
       </c>
       <c r="AP173" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ173" t="s">
         <v>3381</v>
       </c>
       <c r="AR173" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS173" t="s">
         <v>3390</v>
       </c>
-      <c r="AS173" t="s">
+      <c r="AT173" t="s">
         <v>3412</v>
       </c>
-      <c r="AT173" t="s">
+      <c r="AU173" t="s">
         <v>3456</v>
       </c>
-      <c r="AU173" t="s">
+      <c r="AV173" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>219</v>
       </c>
@@ -32223,25 +32764,28 @@
         <v>0</v>
       </c>
       <c r="AP174" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ174" t="s">
         <v>3381</v>
       </c>
       <c r="AR174" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS174" t="s">
         <v>3390</v>
       </c>
-      <c r="AS174" t="s">
+      <c r="AT174" t="s">
         <v>3412</v>
       </c>
-      <c r="AT174" t="s">
+      <c r="AU174" t="s">
         <v>3456</v>
       </c>
-      <c r="AU174" t="s">
+      <c r="AV174" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>220</v>
       </c>
@@ -32345,25 +32889,28 @@
         <v>0</v>
       </c>
       <c r="AP175" t="s">
-        <v>3381</v>
+        <v>2518</v>
       </c>
       <c r="AQ175" t="s">
         <v>3381</v>
       </c>
       <c r="AR175" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AS175" t="s">
         <v>3394</v>
       </c>
-      <c r="AS175" t="s">
+      <c r="AT175" t="s">
         <v>3427</v>
       </c>
-      <c r="AT175" t="s">
+      <c r="AU175" t="s">
         <v>3468</v>
       </c>
-      <c r="AU175" t="s">
+      <c r="AV175" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>221</v>
       </c>
@@ -32461,25 +33008,28 @@
         <v>3370</v>
       </c>
       <c r="AP176" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ176" t="s">
         <v>3385</v>
       </c>
       <c r="AR176" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS176" t="s">
         <v>3402</v>
       </c>
-      <c r="AS176" t="s">
+      <c r="AT176" t="s">
         <v>3438</v>
       </c>
-      <c r="AT176" t="s">
+      <c r="AU176" t="s">
         <v>2979</v>
       </c>
-      <c r="AU176" t="s">
+      <c r="AV176" t="s">
         <v>3489</v>
       </c>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>222</v>
       </c>
@@ -32586,23 +33136,32 @@
         <v>0</v>
       </c>
       <c r="AP177" t="s">
-        <v>3385</v>
+        <v>2518</v>
       </c>
       <c r="AQ177" t="s">
         <v>3385</v>
       </c>
       <c r="AR177" t="s">
+        <v>3385</v>
+      </c>
+      <c r="AS177" t="s">
         <v>3392</v>
       </c>
-      <c r="AS177" t="s">
+      <c r="AT177" t="s">
         <v>3432</v>
       </c>
-      <c r="AU177" t="s">
+      <c r="AV177" t="s">
         <v>3489</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU177" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AV177" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="41">
+      <filters>
+        <filter val="Collaboration group"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/data/users_labeled.xlsx
+++ b/data/users_labeled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beld\Documents\GitHub\code-master-thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0185A9DD-997C-4A49-814A-1F6EF6F339EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9AA0B6-EE6B-464E-A8F5-7058F39CADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11048,13 +11048,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AV177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AP148" sqref="AP148"/>
+      <selection pane="bottomLeft" activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11214,7 +11213,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -11336,7 +11335,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -11607,7 +11606,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -11857,7 +11856,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -11970,7 +11969,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -12092,7 +12091,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -12336,7 +12335,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -12848,7 +12847,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -13089,7 +13088,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="17" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -13217,7 +13216,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -13327,7 +13326,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="19" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -13449,7 +13448,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="20" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -13574,7 +13573,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="21" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -13705,7 +13704,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="22" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="23" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -14071,7 +14070,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -14187,7 +14186,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="26" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -14303,7 +14302,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="27" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="28" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -14559,7 +14558,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="29" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -14678,7 +14677,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="30" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -14803,7 +14802,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -14940,7 +14939,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="32" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="33" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -15181,7 +15180,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="34" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -15312,7 +15311,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="35" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -15446,7 +15445,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="36" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="37" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="38" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -15839,7 +15838,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="39" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -15967,7 +15966,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="40" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -16089,7 +16088,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="41" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -16199,7 +16198,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="42" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -16333,7 +16332,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="43" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -16467,7 +16466,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="44" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="45" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -16726,7 +16725,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="46" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -16851,7 +16850,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="47" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -16973,7 +16972,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="48" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -17107,7 +17106,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="49" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -17241,7 +17240,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -17366,7 +17365,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="51" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="52" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="53" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -17720,7 +17719,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="54" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -17851,7 +17850,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="55" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -17979,7 +17978,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="56" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -18095,7 +18094,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="57" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -18223,7 +18222,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -18360,7 +18359,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="59" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -18479,7 +18478,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="60" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -18598,7 +18597,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="61" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -18717,7 +18716,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="62" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -18851,7 +18850,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="63" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -18979,7 +18978,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="64" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -19104,7 +19103,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="65" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -19229,7 +19228,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="66" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -19357,7 +19356,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="67" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -19577,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AM68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN68">
         <v>1</v>
@@ -19592,7 +19591,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="69" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -19717,7 +19716,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="70" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>115</v>
       </c>
@@ -19851,7 +19850,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="71" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -19970,7 +19969,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="72" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -20101,7 +20100,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="73" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -20241,7 +20240,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="74" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -20372,7 +20371,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="75" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -20494,7 +20493,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="76" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -20601,7 +20600,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="77" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -20723,7 +20722,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="78" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -20857,7 +20856,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="79" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -20991,7 +20990,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="80" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -21116,7 +21115,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="81" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -21256,7 +21255,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="82" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>127</v>
       </c>
@@ -21384,7 +21383,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="83" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -21503,7 +21502,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="84" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -21622,7 +21621,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="85" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -21753,7 +21752,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="86" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -21869,7 +21868,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="87" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -22000,7 +21999,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="88" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -22134,7 +22133,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="89" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -22265,7 +22264,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="90" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -22384,7 +22383,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="91" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -22518,7 +22517,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="92" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -22637,7 +22636,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="93" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -22771,7 +22770,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="94" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -22884,7 +22883,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="95" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -23009,7 +23008,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="96" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -23143,7 +23142,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="97" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>142</v>
       </c>
@@ -23274,7 +23273,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="98" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -23399,7 +23398,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="99" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -23533,7 +23532,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="100" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>145</v>
       </c>
@@ -23664,7 +23663,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="101" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -23804,7 +23803,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="102" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -23941,7 +23940,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="103" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -24060,7 +24059,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="104" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -24185,7 +24184,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="105" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -24313,7 +24312,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="106" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -24435,7 +24434,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="107" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -24566,7 +24565,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="108" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -24691,7 +24690,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="109" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -24816,7 +24815,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="110" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -24944,7 +24943,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="111" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -25072,7 +25071,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="112" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -25200,7 +25199,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="113" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>158</v>
       </c>
@@ -25328,7 +25327,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="114" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -25444,7 +25443,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="115" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -25575,7 +25574,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="116" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -25679,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="AM116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN116">
         <v>1</v>
@@ -25694,7 +25693,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="117" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>162</v>
       </c>
@@ -25816,7 +25815,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="118" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>163</v>
       </c>
@@ -26051,7 +26050,7 @@
         <v>0</v>
       </c>
       <c r="AM119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN119">
         <v>1</v>
@@ -26066,7 +26065,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="120" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
@@ -26167,7 +26166,7 @@
         <v>0</v>
       </c>
       <c r="AM120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN120">
         <v>1</v>
@@ -26182,7 +26181,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="121" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -26289,7 +26288,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="122" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
@@ -26414,7 +26413,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="123" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -26536,7 +26535,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="124" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>169</v>
       </c>
@@ -26673,7 +26672,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="125" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -26801,7 +26800,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="126" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>171</v>
       </c>
@@ -26935,7 +26934,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="127" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -27054,7 +27053,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="128" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -27173,7 +27172,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="129" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>174</v>
       </c>
@@ -27301,7 +27300,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="130" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -27432,7 +27431,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="131" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>176</v>
       </c>
@@ -27646,7 +27645,7 @@
         <v>0</v>
       </c>
       <c r="AM132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN132">
         <v>1</v>
@@ -27661,7 +27660,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="133" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>178</v>
       </c>
@@ -27780,7 +27779,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="134" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -27905,7 +27904,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="135" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -28021,7 +28020,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="136" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -28149,7 +28148,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="137" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -28268,7 +28267,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="138" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -28381,7 +28380,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="139" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -28515,7 +28514,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="140" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -28643,7 +28642,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="141" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>186</v>
       </c>
@@ -28756,7 +28755,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="142" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>187</v>
       </c>
@@ -28878,7 +28877,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="143" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -29012,7 +29011,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="144" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>189</v>
       </c>
@@ -29143,7 +29142,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="145" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>190</v>
       </c>
@@ -29277,7 +29276,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="146" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>191</v>
       </c>
@@ -29402,7 +29401,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="147" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>192</v>
       </c>
@@ -29643,7 +29642,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="149" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>194</v>
       </c>
@@ -29872,7 +29871,7 @@
         <v>0</v>
       </c>
       <c r="AM150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN150">
         <v>1</v>
@@ -29887,7 +29886,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="151" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>196</v>
       </c>
@@ -30006,7 +30005,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="152" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>197</v>
       </c>
@@ -30137,7 +30136,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="153" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>198</v>
       </c>
@@ -30256,7 +30255,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="154" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -30375,7 +30374,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="155" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -30506,7 +30505,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="156" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>201</v>
       </c>
@@ -30637,7 +30636,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="157" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -30768,7 +30767,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="158" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -30887,7 +30886,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="159" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>204</v>
       </c>
@@ -30994,7 +30993,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="160" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -31085,6 +31084,9 @@
       <c r="AK160">
         <v>1</v>
       </c>
+      <c r="AM160">
+        <v>1</v>
+      </c>
       <c r="AN160">
         <v>1</v>
       </c>
@@ -31098,7 +31100,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="161" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -31226,7 +31228,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="162" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>207</v>
       </c>
@@ -31345,7 +31347,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="163" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>208</v>
       </c>
@@ -31464,7 +31466,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="164" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -31577,7 +31579,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="165" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>210</v>
       </c>
@@ -31705,7 +31707,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="166" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -31824,7 +31826,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="167" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>212</v>
       </c>
@@ -31928,7 +31930,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="168" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>213</v>
       </c>
@@ -32053,7 +32055,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="169" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -32175,7 +32177,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="170" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>215</v>
       </c>
@@ -32294,7 +32296,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="171" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>216</v>
       </c>
@@ -32535,7 +32537,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="173" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>218</v>
       </c>
@@ -32654,7 +32656,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="174" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>219</v>
       </c>
@@ -32785,7 +32787,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="175" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>220</v>
       </c>
@@ -32910,7 +32912,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="176" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>221</v>
       </c>
@@ -33029,7 +33031,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="177" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>222</v>
       </c>
@@ -33155,13 +33157,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AV177" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="41">
-      <filters>
-        <filter val="Collaboration group"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AV177" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/data/users_labeled.xlsx
+++ b/data/users_labeled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beld\Documents\GitHub\code-master-thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9AA0B6-EE6B-464E-A8F5-7058F39CADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E12EF72-96D5-4DD1-8AFD-27A15E943FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="3528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="3525">
   <si>
     <t>user_id</t>
   </si>
@@ -10198,9 +10198,6 @@
     <t>Science</t>
   </si>
   <si>
-    <t>UU</t>
-  </si>
-  <si>
     <t>Veterinary Medicine</t>
   </si>
   <si>
@@ -10408,9 +10405,6 @@
     <t>Identity and Security Services</t>
   </si>
   <si>
-    <t>Institute for Risk Assessment Sciences (IRAS)</t>
-  </si>
-  <si>
     <t>Clinical Psychology</t>
   </si>
   <si>
@@ -10504,9 +10498,6 @@
     <t>Soft Condensed Matter</t>
   </si>
   <si>
-    <t>One Health Epidemiology Chemical Agents</t>
-  </si>
-  <si>
     <t>Business Process Management and Analytics</t>
   </si>
   <si>
@@ -10567,9 +10558,6 @@
     <t>IT Engineer</t>
   </si>
   <si>
-    <t>Visiting Researcher</t>
-  </si>
-  <si>
     <t>Research Institute for History and Art History (OGK)</t>
   </si>
   <si>
@@ -10634,6 +10622,9 @@
   </si>
   <si>
     <t>employee_type</t>
+  </si>
+  <si>
+    <t>Can still be retrieved by API but does not work at UU anymore. Faculty is changed manually</t>
   </si>
 </sst>
 </file>
@@ -11051,9 +11042,9 @@
   <dimension ref="A1:AV177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AP6" sqref="AP6"/>
+      <selection pane="bottomLeft" activeCell="AV155" sqref="AV155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11192,7 +11183,7 @@
         <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>3527</v>
+        <v>3523</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>41</v>
@@ -11329,10 +11320,10 @@
         <v>3380</v>
       </c>
       <c r="AS2" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="AV2" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
@@ -11460,16 +11451,16 @@
         <v>3381</v>
       </c>
       <c r="AS3" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT3" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU3" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="AV3" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
@@ -11594,16 +11585,16 @@
         <v>3381</v>
       </c>
       <c r="AS4" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT4" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="AU4" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="AV4" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -11722,22 +11713,22 @@
         <v>2518</v>
       </c>
       <c r="AQ5" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="AR5" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="AS5" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="AT5" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="AU5" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="AV5" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
@@ -11853,7 +11844,7 @@
         <v>2519</v>
       </c>
       <c r="AQ6" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -11960,13 +11951,13 @@
         <v>2518</v>
       </c>
       <c r="AQ7" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR7" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AV7" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -12076,19 +12067,19 @@
         <v>2518</v>
       </c>
       <c r="AQ8" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR8" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS8" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT8" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="AV8" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -12207,16 +12198,16 @@
         <v>3381</v>
       </c>
       <c r="AS9" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT9" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU9" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="AV9" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -12317,22 +12308,22 @@
         <v>2518</v>
       </c>
       <c r="AQ10" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR10" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS10" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="AT10" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="AU10" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="AV10" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -12451,16 +12442,16 @@
         <v>3381</v>
       </c>
       <c r="AS11" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT11" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU11" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="AV11" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -12588,16 +12579,16 @@
         <v>3381</v>
       </c>
       <c r="AS12" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT12" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="AU12" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="AV12" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -12716,7 +12707,7 @@
         <v>2519</v>
       </c>
       <c r="AQ13" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -12841,10 +12832,10 @@
         <v>3380</v>
       </c>
       <c r="AS14" t="s">
-        <v>3506</v>
+        <v>3502</v>
       </c>
       <c r="AT14" t="s">
-        <v>3507</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -12957,16 +12948,16 @@
         <v>3381</v>
       </c>
       <c r="AS15" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT15" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="AU15" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="AV15" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -13076,16 +13067,16 @@
         <v>3381</v>
       </c>
       <c r="AS16" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT16" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="AU16" t="s">
-        <v>3508</v>
+        <v>3504</v>
       </c>
       <c r="AV16" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -13201,19 +13192,19 @@
         <v>2518</v>
       </c>
       <c r="AQ17" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR17" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS17" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT17" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="AV17" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -13311,19 +13302,19 @@
         <v>2518</v>
       </c>
       <c r="AQ18" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR18" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS18" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT18" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="AV18" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
@@ -13436,16 +13427,16 @@
         <v>2518</v>
       </c>
       <c r="AQ19" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AR19" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AS19" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AV19" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
@@ -13561,16 +13552,16 @@
         <v>3381</v>
       </c>
       <c r="AS20" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AT20" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="AU20" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="AV20" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
@@ -13689,19 +13680,19 @@
         <v>2518</v>
       </c>
       <c r="AQ21" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR21" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS21" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT21" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="AV21" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
@@ -13820,16 +13811,16 @@
         <v>3381</v>
       </c>
       <c r="AS22" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT22" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU22" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="AV22" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
@@ -13942,19 +13933,19 @@
         <v>2518</v>
       </c>
       <c r="AQ23" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR23" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS23" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT23" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV23" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
@@ -14064,10 +14055,10 @@
         <v>3370</v>
       </c>
       <c r="AP24" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="AQ24" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
@@ -14183,7 +14174,7 @@
         <v>2519</v>
       </c>
       <c r="AQ25" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
@@ -14299,7 +14290,7 @@
         <v>2519</v>
       </c>
       <c r="AQ26" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
@@ -14421,16 +14412,16 @@
         <v>3381</v>
       </c>
       <c r="AS27" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT27" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="AU27" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="AV27" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
@@ -14549,13 +14540,13 @@
         <v>2518</v>
       </c>
       <c r="AQ28" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR28" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AV28" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
@@ -14659,22 +14650,22 @@
         <v>2518</v>
       </c>
       <c r="AQ29" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR29" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS29" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="AT29" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="AU29" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="AV29" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
@@ -14787,19 +14778,19 @@
         <v>2518</v>
       </c>
       <c r="AQ30" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR30" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS30" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT30" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="AV30" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
@@ -14921,22 +14912,22 @@
         <v>2518</v>
       </c>
       <c r="AQ31" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR31" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS31" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT31" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="AU31" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="AV31" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
@@ -15168,16 +15159,16 @@
         <v>3381</v>
       </c>
       <c r="AS33" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT33" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="AU33" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="AV33" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
@@ -15299,16 +15290,16 @@
         <v>2518</v>
       </c>
       <c r="AQ34" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AR34" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AS34" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AV34" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.25">
@@ -15433,16 +15424,16 @@
         <v>3381</v>
       </c>
       <c r="AS35" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT35" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="AU35" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="AV35" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
@@ -15558,22 +15549,22 @@
         <v>2518</v>
       </c>
       <c r="AQ36" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR36" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS36" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT36" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="AU36" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="AV36" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.25">
@@ -15683,22 +15674,22 @@
         <v>2518</v>
       </c>
       <c r="AQ37" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="AR37" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="AS37" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="AT37" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="AU37" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="AV37" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
@@ -15826,16 +15817,16 @@
         <v>3381</v>
       </c>
       <c r="AS38" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT38" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="AU38" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="AV38" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.25">
@@ -15951,19 +15942,19 @@
         <v>2518</v>
       </c>
       <c r="AQ39" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR39" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS39" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT39" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV39" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.25">
@@ -16073,19 +16064,19 @@
         <v>2518</v>
       </c>
       <c r="AQ40" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR40" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS40" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT40" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV40" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.25">
@@ -16186,16 +16177,16 @@
         <v>2518</v>
       </c>
       <c r="AQ41" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AR41" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AS41" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AV41" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.25">
@@ -16320,16 +16311,16 @@
         <v>3381</v>
       </c>
       <c r="AS42" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT42" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="AU42" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="AV42" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.25">
@@ -16454,16 +16445,16 @@
         <v>3381</v>
       </c>
       <c r="AS43" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AT43" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="AU43" t="s">
-        <v>3509</v>
+        <v>3505</v>
       </c>
       <c r="AV43" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.25">
@@ -16576,22 +16567,22 @@
         <v>2518</v>
       </c>
       <c r="AQ44" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR44" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS44" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT44" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="AU44" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="AV44" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.25">
@@ -16710,19 +16701,19 @@
         <v>2518</v>
       </c>
       <c r="AQ45" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR45" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS45" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="AT45" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="AV45" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.25">
@@ -16835,19 +16826,19 @@
         <v>2518</v>
       </c>
       <c r="AQ46" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR46" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS46" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="AT46" t="s">
-        <v>3510</v>
+        <v>3506</v>
       </c>
       <c r="AV46" t="s">
-        <v>3511</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
@@ -16960,16 +16951,16 @@
         <v>3381</v>
       </c>
       <c r="AS47" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT47" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="AU47" t="s">
-        <v>3512</v>
+        <v>3508</v>
       </c>
       <c r="AV47" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.25">
@@ -17088,22 +17079,22 @@
         <v>2518</v>
       </c>
       <c r="AQ48" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR48" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS48" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="AT48" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="AU48" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="AV48" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.25">
@@ -17225,19 +17216,19 @@
         <v>2518</v>
       </c>
       <c r="AQ49" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR49" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS49" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT49" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV49" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.25">
@@ -17347,22 +17338,22 @@
         <v>2518</v>
       </c>
       <c r="AQ50" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR50" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS50" t="s">
-        <v>3513</v>
+        <v>3509</v>
       </c>
       <c r="AT50" t="s">
-        <v>3514</v>
+        <v>3510</v>
       </c>
       <c r="AU50" t="s">
-        <v>3515</v>
+        <v>3511</v>
       </c>
       <c r="AV50" t="s">
-        <v>3516</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.25">
@@ -17475,16 +17466,16 @@
         <v>3381</v>
       </c>
       <c r="AS51" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT51" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU51" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="AV51" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.25">
@@ -17588,19 +17579,19 @@
         <v>2518</v>
       </c>
       <c r="AQ52" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR52" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS52" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="AT52" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="AV52" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.25">
@@ -17716,7 +17707,7 @@
         <v>2519</v>
       </c>
       <c r="AQ53" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.25">
@@ -17835,19 +17826,19 @@
         <v>2518</v>
       </c>
       <c r="AQ54" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR54" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS54" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="AT54" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="AV54" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.25">
@@ -17966,16 +17957,16 @@
         <v>3381</v>
       </c>
       <c r="AS55" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT55" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="AU55" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="AV55" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.25">
@@ -18207,19 +18198,19 @@
         <v>2518</v>
       </c>
       <c r="AQ57" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR57" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS57" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT57" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="AV57" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.25">
@@ -18344,19 +18335,19 @@
         <v>2518</v>
       </c>
       <c r="AQ58" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR58" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS58" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT58" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV58" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.25">
@@ -18588,13 +18579,13 @@
         <v>2518</v>
       </c>
       <c r="AQ60" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR60" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AV60" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
@@ -18701,19 +18692,19 @@
         <v>2518</v>
       </c>
       <c r="AQ61" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR61" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS61" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT61" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="AV61" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
@@ -18841,13 +18832,13 @@
         <v>3380</v>
       </c>
       <c r="AS62" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="AT62" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="AV62" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.25">
@@ -18972,10 +18963,10 @@
         <v>3380</v>
       </c>
       <c r="AS63" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="AV63" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
@@ -19091,16 +19082,16 @@
         <v>3381</v>
       </c>
       <c r="AS64" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="AT64" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="AU64" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="AV64" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="65" spans="1:48" x14ac:dyDescent="0.25">
@@ -19216,16 +19207,16 @@
         <v>3381</v>
       </c>
       <c r="AS65" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT65" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="AU65" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="AV65" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="66" spans="1:48" x14ac:dyDescent="0.25">
@@ -19347,13 +19338,13 @@
         <v>3380</v>
       </c>
       <c r="AS66" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="AT66" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="AV66" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.25">
@@ -19472,16 +19463,16 @@
         <v>3381</v>
       </c>
       <c r="AS67" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT67" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU67" t="s">
-        <v>3517</v>
+        <v>3513</v>
       </c>
       <c r="AV67" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="68" spans="1:48" x14ac:dyDescent="0.25">
@@ -19585,10 +19576,10 @@
         <v>3370</v>
       </c>
       <c r="AP68" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="AQ68" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="69" spans="1:48" x14ac:dyDescent="0.25">
@@ -19701,19 +19692,19 @@
         <v>2518</v>
       </c>
       <c r="AQ69" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR69" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS69" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT69" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="AV69" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="70" spans="1:48" x14ac:dyDescent="0.25">
@@ -19835,19 +19826,19 @@
         <v>2518</v>
       </c>
       <c r="AQ70" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR70" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS70" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AT70" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="AV70" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.25">
@@ -19957,16 +19948,16 @@
         <v>3381</v>
       </c>
       <c r="AS71" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT71" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="AU71" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="AV71" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="72" spans="1:48" x14ac:dyDescent="0.25">
@@ -20088,16 +20079,16 @@
         <v>2518</v>
       </c>
       <c r="AQ72" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR72" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS72" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT72" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="73" spans="1:48" x14ac:dyDescent="0.25">
@@ -20228,16 +20219,16 @@
         <v>3381</v>
       </c>
       <c r="AS73" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT73" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="AU73" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="AV73" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.25">
@@ -20356,19 +20347,19 @@
         <v>2518</v>
       </c>
       <c r="AQ74" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR74" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS74" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="AT74" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="AV74" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="75" spans="1:48" x14ac:dyDescent="0.25">
@@ -20478,16 +20469,16 @@
         <v>2518</v>
       </c>
       <c r="AQ75" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR75" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS75" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AT75" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="AV75" t="s">
         <v>3376</v>
@@ -20588,16 +20579,16 @@
         <v>2518</v>
       </c>
       <c r="AQ76" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AR76" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AS76" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AV76" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="77" spans="1:48" x14ac:dyDescent="0.25">
@@ -20713,13 +20704,13 @@
         <v>2518</v>
       </c>
       <c r="AQ77" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR77" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AV77" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.25">
@@ -20838,22 +20829,22 @@
         <v>2518</v>
       </c>
       <c r="AQ78" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR78" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS78" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT78" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="AU78" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="AV78" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="79" spans="1:48" x14ac:dyDescent="0.25">
@@ -20978,16 +20969,16 @@
         <v>3380</v>
       </c>
       <c r="AS79" t="s">
-        <v>3518</v>
+        <v>3514</v>
       </c>
       <c r="AT79" t="s">
-        <v>3519</v>
+        <v>3515</v>
       </c>
       <c r="AU79" t="s">
-        <v>3520</v>
+        <v>3516</v>
       </c>
       <c r="AV79" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="80" spans="1:48" x14ac:dyDescent="0.25">
@@ -21103,16 +21094,16 @@
         <v>3381</v>
       </c>
       <c r="AS80" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT80" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="AU80" t="s">
-        <v>3521</v>
+        <v>3517</v>
       </c>
       <c r="AV80" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="81" spans="1:48" x14ac:dyDescent="0.25">
@@ -21243,16 +21234,16 @@
         <v>3381</v>
       </c>
       <c r="AS81" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AT81" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="AU81" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="AV81" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="82" spans="1:48" x14ac:dyDescent="0.25">
@@ -21365,22 +21356,22 @@
         <v>2518</v>
       </c>
       <c r="AQ82" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR82" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS82" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT82" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="AU82" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="AV82" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="83" spans="1:48" x14ac:dyDescent="0.25">
@@ -21490,16 +21481,16 @@
         <v>3381</v>
       </c>
       <c r="AS83" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="AT83" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="AU83" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="AV83" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="84" spans="1:48" x14ac:dyDescent="0.25">
@@ -21606,19 +21597,19 @@
         <v>2518</v>
       </c>
       <c r="AQ84" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR84" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS84" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AT84" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="AV84" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="85" spans="1:48" x14ac:dyDescent="0.25">
@@ -21737,19 +21728,19 @@
         <v>2518</v>
       </c>
       <c r="AQ85" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR85" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS85" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT85" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="AV85" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="86" spans="1:48" x14ac:dyDescent="0.25">
@@ -21850,22 +21841,22 @@
         <v>2518</v>
       </c>
       <c r="AQ86" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR86" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS86" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT86" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="AU86" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="AV86" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="87" spans="1:48" x14ac:dyDescent="0.25">
@@ -21984,19 +21975,19 @@
         <v>2518</v>
       </c>
       <c r="AQ87" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR87" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS87" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="AT87" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="AV87" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="88" spans="1:48" x14ac:dyDescent="0.25">
@@ -22121,16 +22112,16 @@
         <v>3381</v>
       </c>
       <c r="AS88" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT88" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU88" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="AV88" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="89" spans="1:48" x14ac:dyDescent="0.25">
@@ -22249,19 +22240,19 @@
         <v>2518</v>
       </c>
       <c r="AQ89" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR89" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS89" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT89" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="AV89" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="90" spans="1:48" x14ac:dyDescent="0.25">
@@ -22371,16 +22362,16 @@
         <v>3381</v>
       </c>
       <c r="AS90" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT90" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="AU90" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="AV90" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.25">
@@ -22505,16 +22496,16 @@
         <v>3381</v>
       </c>
       <c r="AS91" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT91" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="AU91" t="s">
-        <v>3521</v>
+        <v>3517</v>
       </c>
       <c r="AV91" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="92" spans="1:48" x14ac:dyDescent="0.25">
@@ -22633,7 +22624,7 @@
         <v>3381</v>
       </c>
       <c r="AV92" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="93" spans="1:48" x14ac:dyDescent="0.25">
@@ -22755,19 +22746,19 @@
         <v>2518</v>
       </c>
       <c r="AQ93" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR93" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS93" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT93" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="AV93" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.25">
@@ -22865,22 +22856,22 @@
         <v>2518</v>
       </c>
       <c r="AQ94" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR94" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS94" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="AT94" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="AU94" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="AV94" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="95" spans="1:48" x14ac:dyDescent="0.25">
@@ -22999,13 +22990,13 @@
         <v>3380</v>
       </c>
       <c r="AS95" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="AT95" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="AV95" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.25">
@@ -23124,22 +23115,22 @@
         <v>2518</v>
       </c>
       <c r="AQ96" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR96" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS96" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT96" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="AU96" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="AV96" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="97" spans="1:48" x14ac:dyDescent="0.25">
@@ -23258,19 +23249,19 @@
         <v>2518</v>
       </c>
       <c r="AQ97" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR97" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS97" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT97" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV97" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="98" spans="1:48" x14ac:dyDescent="0.25">
@@ -23386,16 +23377,16 @@
         <v>3381</v>
       </c>
       <c r="AS98" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AT98" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="AU98" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="AV98" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="99" spans="1:48" x14ac:dyDescent="0.25">
@@ -23517,19 +23508,19 @@
         <v>2518</v>
       </c>
       <c r="AQ99" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="AR99" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="AS99" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="AT99" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="AV99" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="100" spans="1:48" x14ac:dyDescent="0.25">
@@ -23651,16 +23642,16 @@
         <v>3381</v>
       </c>
       <c r="AS100" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT100" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="AU100" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="AV100" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="101" spans="1:48" x14ac:dyDescent="0.25">
@@ -23791,16 +23782,16 @@
         <v>3381</v>
       </c>
       <c r="AS101" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT101" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="AU101" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="AV101" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="102" spans="1:48" x14ac:dyDescent="0.25">
@@ -23928,16 +23919,16 @@
         <v>3381</v>
       </c>
       <c r="AS102" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT102" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="AU102" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="AV102" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="103" spans="1:48" x14ac:dyDescent="0.25">
@@ -24044,19 +24035,19 @@
         <v>2518</v>
       </c>
       <c r="AQ103" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR103" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS103" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="AT103" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="AV103" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="104" spans="1:48" x14ac:dyDescent="0.25">
@@ -24171,17 +24162,17 @@
       <c r="AN104">
         <v>1</v>
       </c>
-      <c r="AO104">
-        <v>0</v>
+      <c r="AO104" t="s">
+        <v>3524</v>
       </c>
       <c r="AP104" t="s">
         <v>2518</v>
       </c>
       <c r="AQ104" t="s">
-        <v>3382</v>
+        <v>3386</v>
       </c>
       <c r="AR104" t="s">
-        <v>3382</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="105" spans="1:48" x14ac:dyDescent="0.25">
@@ -24297,19 +24288,19 @@
         <v>2518</v>
       </c>
       <c r="AQ105" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR105" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS105" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT105" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="AV105" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="106" spans="1:48" x14ac:dyDescent="0.25">
@@ -24428,10 +24419,10 @@
         <v>3380</v>
       </c>
       <c r="AS106" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="AV106" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="107" spans="1:48" x14ac:dyDescent="0.25">
@@ -24547,22 +24538,22 @@
         <v>2518</v>
       </c>
       <c r="AQ107" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR107" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS107" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT107" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="AU107" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="AV107" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="108" spans="1:48" x14ac:dyDescent="0.25">
@@ -24675,19 +24666,19 @@
         <v>2518</v>
       </c>
       <c r="AQ108" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR108" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS108" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT108" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="AV108" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="109" spans="1:48" x14ac:dyDescent="0.25">
@@ -24803,16 +24794,16 @@
         <v>3381</v>
       </c>
       <c r="AS109" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT109" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="AU109" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="AV109" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="110" spans="1:48" x14ac:dyDescent="0.25">
@@ -24931,16 +24922,16 @@
         <v>3381</v>
       </c>
       <c r="AS110" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT110" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU110" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="AV110" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="111" spans="1:48" x14ac:dyDescent="0.25">
@@ -25056,19 +25047,19 @@
         <v>2518</v>
       </c>
       <c r="AQ111" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR111" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS111" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="AT111" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="AV111" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="112" spans="1:48" x14ac:dyDescent="0.25">
@@ -25184,19 +25175,19 @@
         <v>2518</v>
       </c>
       <c r="AQ112" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR112" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS112" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AT112" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="AV112" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.25">
@@ -25315,16 +25306,16 @@
         <v>3381</v>
       </c>
       <c r="AS113" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AT113" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="AU113" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="AV113" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="114" spans="1:48" x14ac:dyDescent="0.25">
@@ -25440,7 +25431,7 @@
         <v>2519</v>
       </c>
       <c r="AQ114" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="115" spans="1:48" x14ac:dyDescent="0.25">
@@ -25565,13 +25556,13 @@
         <v>3381</v>
       </c>
       <c r="AS115" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT115" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="AV115" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="116" spans="1:48" x14ac:dyDescent="0.25">
@@ -25803,16 +25794,16 @@
         <v>2518</v>
       </c>
       <c r="AQ117" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AR117" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AS117" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AV117" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="118" spans="1:48" x14ac:dyDescent="0.25">
@@ -25940,16 +25931,16 @@
         <v>3381</v>
       </c>
       <c r="AS118" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT118" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU118" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="AV118" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="119" spans="1:48" x14ac:dyDescent="0.25">
@@ -26059,10 +26050,10 @@
         <v>3378</v>
       </c>
       <c r="AP119" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="AQ119" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.25">
@@ -26407,10 +26398,10 @@
         <v>3380</v>
       </c>
       <c r="AS122" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="AV122" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="123" spans="1:48" x14ac:dyDescent="0.25">
@@ -26520,19 +26511,19 @@
         <v>2518</v>
       </c>
       <c r="AQ123" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR123" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS123" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT123" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="AV123" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="124" spans="1:48" x14ac:dyDescent="0.25">
@@ -26657,19 +26648,19 @@
         <v>2518</v>
       </c>
       <c r="AQ124" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR124" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS124" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="AT124" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="AV124" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.25">
@@ -26788,16 +26779,16 @@
         <v>3381</v>
       </c>
       <c r="AS125" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="AT125" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="AU125" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="AV125" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="126" spans="1:48" x14ac:dyDescent="0.25">
@@ -26919,19 +26910,19 @@
         <v>2518</v>
       </c>
       <c r="AQ126" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR126" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS126" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="AT126" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="AV126" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="127" spans="1:48" x14ac:dyDescent="0.25">
@@ -27050,7 +27041,7 @@
         <v>2519</v>
       </c>
       <c r="AQ127" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="128" spans="1:48" x14ac:dyDescent="0.25">
@@ -27157,19 +27148,19 @@
         <v>2518</v>
       </c>
       <c r="AQ128" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR128" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS128" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT128" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="AV128" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="129" spans="1:48" x14ac:dyDescent="0.25">
@@ -27285,19 +27276,19 @@
         <v>2518</v>
       </c>
       <c r="AQ129" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR129" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS129" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AT129" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="AV129" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="130" spans="1:48" x14ac:dyDescent="0.25">
@@ -27416,19 +27407,19 @@
         <v>2518</v>
       </c>
       <c r="AQ130" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="AR130" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="AS130" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="AT130" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="AV130" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.25">
@@ -27538,16 +27529,16 @@
         <v>3381</v>
       </c>
       <c r="AS131" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT131" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU131" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="AV131" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="132" spans="1:48" x14ac:dyDescent="0.25">
@@ -27654,10 +27645,10 @@
         <v>3370</v>
       </c>
       <c r="AP132" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="AQ132" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.25">
@@ -27889,19 +27880,19 @@
         <v>2518</v>
       </c>
       <c r="AQ134" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR134" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS134" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT134" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="AV134" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.25">
@@ -28005,19 +27996,19 @@
         <v>2518</v>
       </c>
       <c r="AQ135" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR135" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS135" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT135" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV135" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="136" spans="1:48" x14ac:dyDescent="0.25">
@@ -28133,19 +28124,19 @@
         <v>2518</v>
       </c>
       <c r="AQ136" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="AR136" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="AS136" t="s">
-        <v>3522</v>
+        <v>3518</v>
       </c>
       <c r="AT136" t="s">
-        <v>3523</v>
+        <v>3519</v>
       </c>
       <c r="AV136" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="137" spans="1:48" x14ac:dyDescent="0.25">
@@ -28365,19 +28356,19 @@
         <v>2518</v>
       </c>
       <c r="AQ138" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR138" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS138" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT138" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV138" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="139" spans="1:48" x14ac:dyDescent="0.25">
@@ -28502,16 +28493,16 @@
         <v>3381</v>
       </c>
       <c r="AS139" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT139" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="AU139" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="AV139" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.25">
@@ -28627,19 +28618,19 @@
         <v>2518</v>
       </c>
       <c r="AQ140" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR140" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS140" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT140" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV140" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.25">
@@ -28743,16 +28734,16 @@
         <v>2518</v>
       </c>
       <c r="AQ141" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AR141" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="AS141" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AV141" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="142" spans="1:48" x14ac:dyDescent="0.25">
@@ -28859,22 +28850,22 @@
         <v>2518</v>
       </c>
       <c r="AQ142" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR142" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS142" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="AT142" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="AU142" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="AV142" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="143" spans="1:48" x14ac:dyDescent="0.25">
@@ -28999,16 +28990,16 @@
         <v>3381</v>
       </c>
       <c r="AS143" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT143" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="AU143" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="AV143" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.25">
@@ -29127,19 +29118,19 @@
         <v>2518</v>
       </c>
       <c r="AQ144" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR144" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS144" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT144" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV144" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="145" spans="1:48" x14ac:dyDescent="0.25">
@@ -29264,16 +29255,16 @@
         <v>3381</v>
       </c>
       <c r="AS145" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT145" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU145" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="AV145" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="146" spans="1:48" x14ac:dyDescent="0.25">
@@ -29386,19 +29377,19 @@
         <v>2518</v>
       </c>
       <c r="AQ146" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR146" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS146" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AT146" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="AV146" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="147" spans="1:48" x14ac:dyDescent="0.25">
@@ -29511,19 +29502,19 @@
         <v>2518</v>
       </c>
       <c r="AQ147" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR147" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS147" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT147" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV147" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="148" spans="1:48" x14ac:dyDescent="0.25">
@@ -29636,10 +29627,10 @@
         <v>0</v>
       </c>
       <c r="AP148" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="AQ148" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="149" spans="1:48" x14ac:dyDescent="0.25">
@@ -29758,19 +29749,19 @@
         <v>2518</v>
       </c>
       <c r="AQ149" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR149" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS149" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AT149" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="AV149" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="150" spans="1:48" x14ac:dyDescent="0.25">
@@ -29880,10 +29871,10 @@
         <v>3370</v>
       </c>
       <c r="AP150" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="AQ150" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="151" spans="1:48" x14ac:dyDescent="0.25">
@@ -29996,13 +29987,13 @@
         <v>3381</v>
       </c>
       <c r="AS151" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="AT151" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="AV151" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="152" spans="1:48" x14ac:dyDescent="0.25">
@@ -30121,19 +30112,19 @@
         <v>2518</v>
       </c>
       <c r="AQ152" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR152" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS152" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT152" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV152" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="153" spans="1:48" x14ac:dyDescent="0.25">
@@ -30243,16 +30234,16 @@
         <v>2518</v>
       </c>
       <c r="AQ153" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AR153" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="AS153" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="AT153" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="154" spans="1:48" x14ac:dyDescent="0.25">
@@ -30356,22 +30347,19 @@
         <v>2518</v>
       </c>
       <c r="AQ154" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="AR154" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="AS154" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="AT154" t="s">
-        <v>3452</v>
-      </c>
-      <c r="AU154" t="s">
-        <v>3484</v>
+        <v>3416</v>
       </c>
       <c r="AV154" t="s">
-        <v>3505</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="155" spans="1:48" x14ac:dyDescent="0.25">
@@ -30487,22 +30475,22 @@
         <v>2518</v>
       </c>
       <c r="AQ155" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR155" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS155" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT155" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="AU155" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="AV155" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="156" spans="1:48" x14ac:dyDescent="0.25">
@@ -30627,13 +30615,13 @@
         <v>2518</v>
       </c>
       <c r="AQ156" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR156" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AV156" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="157" spans="1:48" x14ac:dyDescent="0.25">
@@ -30752,19 +30740,19 @@
         <v>2518</v>
       </c>
       <c r="AQ157" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR157" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS157" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="AT157" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="AV157" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="158" spans="1:48" x14ac:dyDescent="0.25">
@@ -31097,7 +31085,7 @@
         <v>2519</v>
       </c>
       <c r="AQ160" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="161" spans="1:48" x14ac:dyDescent="0.25">
@@ -31204,28 +31192,28 @@
         <v>1</v>
       </c>
       <c r="AO161" t="s">
-        <v>3525</v>
+        <v>3521</v>
       </c>
       <c r="AP161" t="s">
         <v>2518</v>
       </c>
       <c r="AQ161" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR161" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS161" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT161" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="AU161" t="s">
         <v>2979</v>
       </c>
       <c r="AV161" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="162" spans="1:48" x14ac:dyDescent="0.25">
@@ -31344,7 +31332,7 @@
         <v>2519</v>
       </c>
       <c r="AQ162" t="s">
-        <v>3526</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="163" spans="1:48" x14ac:dyDescent="0.25">
@@ -31695,16 +31683,16 @@
         <v>2519</v>
       </c>
       <c r="AQ165" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR165" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS165" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT165" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="166" spans="1:48" x14ac:dyDescent="0.25">
@@ -32046,13 +32034,13 @@
         <v>2518</v>
       </c>
       <c r="AQ168" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR168" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AV168" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="169" spans="1:48" x14ac:dyDescent="0.25">
@@ -32162,19 +32150,19 @@
         <v>2518</v>
       </c>
       <c r="AQ169" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AR169" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS169" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="AT169" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="AV169" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="170" spans="1:48" x14ac:dyDescent="0.25">
@@ -32284,16 +32272,16 @@
         <v>3381</v>
       </c>
       <c r="AS170" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT170" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="AU170" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="AV170" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="171" spans="1:48" x14ac:dyDescent="0.25">
@@ -32415,16 +32403,16 @@
         <v>3381</v>
       </c>
       <c r="AS171" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT171" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU171" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="AV171" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="172" spans="1:48" x14ac:dyDescent="0.25">
@@ -32531,10 +32519,10 @@
         <v>0</v>
       </c>
       <c r="AP172" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="AQ172" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="173" spans="1:48" x14ac:dyDescent="0.25">
@@ -32644,16 +32632,16 @@
         <v>3381</v>
       </c>
       <c r="AS173" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT173" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU173" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="AV173" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="174" spans="1:48" x14ac:dyDescent="0.25">
@@ -32775,16 +32763,16 @@
         <v>3381</v>
       </c>
       <c r="AS174" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="AT174" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AU174" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="AV174" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="175" spans="1:48" x14ac:dyDescent="0.25">
@@ -32900,16 +32888,16 @@
         <v>3381</v>
       </c>
       <c r="AS175" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="AT175" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="AU175" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="AV175" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="176" spans="1:48" x14ac:dyDescent="0.25">
@@ -33013,22 +33001,22 @@
         <v>2518</v>
       </c>
       <c r="AQ176" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR176" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS176" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="AT176" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="AU176" t="s">
         <v>2979</v>
       </c>
       <c r="AV176" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="177" spans="1:48" x14ac:dyDescent="0.25">
@@ -33141,19 +33129,19 @@
         <v>2518</v>
       </c>
       <c r="AQ177" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AR177" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="AS177" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="AT177" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="AV177" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
   </sheetData>

--- a/data/users_labeled.xlsx
+++ b/data/users_labeled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beld\Documents\GitHub\code-master-thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E12EF72-96D5-4DD1-8AFD-27A15E943FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EF187C-5E09-4179-9ADA-91161E324DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10618,13 +10618,13 @@
     <t>This is directly related to the chair of the professor so it's fine to keep the relation to him</t>
   </si>
   <si>
-    <t>No faculty</t>
-  </si>
-  <si>
     <t>employee_type</t>
   </si>
   <si>
     <t>Can still be retrieved by API but does not work at UU anymore. Faculty is changed manually</t>
+  </si>
+  <si>
+    <t>UtrechtUniversity</t>
   </si>
 </sst>
 </file>
@@ -11042,9 +11042,9 @@
   <dimension ref="A1:AV177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AV155" sqref="AV155"/>
+      <selection pane="bottomLeft" activeCell="AQ165" sqref="AQ165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11183,7 +11183,7 @@
         <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>41</v>
@@ -24163,7 +24163,7 @@
         <v>1</v>
       </c>
       <c r="AO104" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="AP104" t="s">
         <v>2518</v>
@@ -31332,7 +31332,7 @@
         <v>2519</v>
       </c>
       <c r="AQ162" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="163" spans="1:48" x14ac:dyDescent="0.25">
